--- a/data/Vehicle_Ownership.xlsx
+++ b/data/Vehicle_Ownership.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D3307-239A-43C3-93D0-B470D5D1BA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093B2C3-9205-4BAC-AE1A-54CF76691CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FF4AD603-0FFA-40CB-9C5B-85FE0072E979}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{FF4AD603-0FFA-40CB-9C5B-85FE0072E979}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Data_prep" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -653,20 +653,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B438FA1-205D-431C-B63C-C60189B3878B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -744,7 +744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -788,7 +788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -808,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -826,7 +826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -860,7 +860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -878,7 +878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -894,7 +894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -912,7 +912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -930,7 +930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -948,7 +948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -984,7 +984,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>69</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>52</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="3" t="s">
@@ -1115,7 +1115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="3" t="s">
@@ -1125,7 +1125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1153,16 +1153,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E799A2C7-724C-4BD5-AAAB-0AE4762BED26}">
   <dimension ref="A1:G454"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A454" sqref="A2:A454"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="O155" sqref="O155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="2" max="2" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="7" t="s">
         <v>61</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>71</v>
       </c>
@@ -1210,6 +1210,7 @@
         <v>1901</v>
       </c>
       <c r="C3">
+        <f>C2+(C$52-C$2)/50</f>
         <v>4.2941279388593872</v>
       </c>
       <c r="D3">
@@ -1225,7 +1226,7 @@
         <v>8.4381762259472845E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -1233,6 +1234,7 @@
         <v>1902</v>
       </c>
       <c r="C4">
+        <f t="shared" ref="C4:C51" si="0">C3+(C$52-C$2)/50</f>
         <v>8.5882558777187743</v>
       </c>
       <c r="D4">
@@ -1248,7 +1250,7 @@
         <v>0.16876352451894569</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -1256,6 +1258,7 @@
         <v>1903</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
         <v>12.882383816578162</v>
       </c>
       <c r="D5">
@@ -1271,7 +1274,7 @@
         <v>0.25314528677841852</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -1279,6 +1282,7 @@
         <v>1904</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
         <v>17.176511755437549</v>
       </c>
       <c r="D6">
@@ -1294,7 +1298,7 @@
         <v>0.33752704903789138</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -1302,6 +1306,7 @@
         <v>1905</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
         <v>21.470639694296935</v>
       </c>
       <c r="D7">
@@ -1317,7 +1322,7 @@
         <v>0.42190881129736424</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
@@ -1325,6 +1330,7 @@
         <v>1906</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
         <v>25.764767633156321</v>
       </c>
       <c r="D8">
@@ -1340,7 +1346,7 @@
         <v>0.50629057355683704</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -1348,6 +1354,7 @@
         <v>1907</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
         <v>30.058895572015707</v>
       </c>
       <c r="D9">
@@ -1363,7 +1370,7 @@
         <v>0.59067233581630985</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>71</v>
       </c>
@@ -1371,6 +1378,7 @@
         <v>1908</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
         <v>34.353023510875097</v>
       </c>
       <c r="D10">
@@ -1386,7 +1394,7 @@
         <v>0.67505409807578265</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -1394,6 +1402,7 @@
         <v>1909</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
         <v>38.647151449734487</v>
       </c>
       <c r="D11">
@@ -1409,7 +1418,7 @@
         <v>0.75943586033525545</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -1417,6 +1426,7 @@
         <v>1910</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
         <v>42.941279388593877</v>
       </c>
       <c r="D12">
@@ -1432,7 +1442,7 @@
         <v>0.84381762259472826</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>71</v>
       </c>
@@ -1440,6 +1450,7 @@
         <v>1911</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
         <v>47.235407327453267</v>
       </c>
       <c r="D13">
@@ -1455,7 +1466,7 @@
         <v>0.92819938485420106</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>71</v>
       </c>
@@ -1463,6 +1474,7 @@
         <v>1912</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
         <v>51.529535266312656</v>
       </c>
       <c r="D14">
@@ -1478,7 +1490,7 @@
         <v>1.0125811471136739</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>71</v>
       </c>
@@ -1486,6 +1498,7 @@
         <v>1913</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
         <v>55.823663205172046</v>
       </c>
       <c r="D15">
@@ -1501,7 +1514,7 @@
         <v>1.0969629093731468</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>71</v>
       </c>
@@ -1509,6 +1522,7 @@
         <v>1914</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
         <v>60.117791144031436</v>
       </c>
       <c r="D16">
@@ -1524,7 +1538,7 @@
         <v>1.1813446716326197</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>71</v>
       </c>
@@ -1532,6 +1546,7 @@
         <v>1915</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
         <v>64.411919082890819</v>
       </c>
       <c r="D17">
@@ -1547,7 +1562,7 @@
         <v>1.2657264338920926</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>71</v>
       </c>
@@ -1555,6 +1570,7 @@
         <v>1916</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
         <v>68.706047021750209</v>
       </c>
       <c r="D18">
@@ -1570,7 +1586,7 @@
         <v>1.3501081961515655</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>71</v>
       </c>
@@ -1578,6 +1594,7 @@
         <v>1917</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
         <v>73.000174960609598</v>
       </c>
       <c r="D19">
@@ -1593,7 +1610,7 @@
         <v>1.4344899584110384</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>71</v>
       </c>
@@ -1601,6 +1618,7 @@
         <v>1918</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
         <v>77.294302899468988</v>
       </c>
       <c r="D20">
@@ -1616,7 +1634,7 @@
         <v>1.5188717206705113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>71</v>
       </c>
@@ -1624,6 +1642,7 @@
         <v>1919</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
         <v>81.588430838328378</v>
       </c>
       <c r="D21">
@@ -1639,7 +1658,7 @@
         <v>1.6032534829299843</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>71</v>
       </c>
@@ -1647,6 +1666,7 @@
         <v>1920</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
         <v>85.882558777187768</v>
       </c>
       <c r="D22">
@@ -1662,7 +1682,7 @@
         <v>1.6876352451894572</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
@@ -1670,6 +1690,7 @@
         <v>1921</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
         <v>90.176686716047158</v>
       </c>
       <c r="D23">
@@ -1685,7 +1706,7 @@
         <v>1.7720170074489301</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>71</v>
       </c>
@@ -1693,6 +1714,7 @@
         <v>1922</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
         <v>94.470814654906548</v>
       </c>
       <c r="D24">
@@ -1708,7 +1730,7 @@
         <v>1.856398769708403</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -1716,6 +1738,7 @@
         <v>1923</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
         <v>98.764942593765937</v>
       </c>
       <c r="D25">
@@ -1731,7 +1754,7 @@
         <v>1.9407805319678759</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>71</v>
       </c>
@@ -1739,6 +1762,7 @@
         <v>1924</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
         <v>103.05907053262533</v>
       </c>
       <c r="D26">
@@ -1754,7 +1778,7 @@
         <v>2.0251622942273486</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -1762,6 +1786,7 @@
         <v>1925</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
         <v>107.35319847148472</v>
       </c>
       <c r="D27">
@@ -1777,7 +1802,7 @@
         <v>2.1095440564868215</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
@@ -1785,6 +1810,7 @@
         <v>1926</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
         <v>111.64732641034411</v>
       </c>
       <c r="D28">
@@ -1800,7 +1826,7 @@
         <v>2.1939258187462944</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -1808,6 +1834,7 @@
         <v>1927</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
         <v>115.9414543492035</v>
       </c>
       <c r="D29">
@@ -1823,7 +1850,7 @@
         <v>2.2783075810057674</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -1831,6 +1858,7 @@
         <v>1928</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
         <v>120.23558228806289</v>
       </c>
       <c r="D30">
@@ -1846,7 +1874,7 @@
         <v>2.3626893432652403</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
@@ -1854,6 +1882,7 @@
         <v>1929</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
         <v>124.52971022692228</v>
       </c>
       <c r="D31">
@@ -1869,7 +1898,7 @@
         <v>2.4470711055247132</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -1877,6 +1906,7 @@
         <v>1930</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
         <v>128.82383816578167</v>
       </c>
       <c r="D32">
@@ -1892,7 +1922,7 @@
         <v>2.5314528677841861</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
@@ -1900,6 +1930,7 @@
         <v>1931</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
         <v>133.11796610464106</v>
       </c>
       <c r="D33">
@@ -1915,7 +1946,7 @@
         <v>2.615834630043659</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>71</v>
       </c>
@@ -1923,6 +1954,7 @@
         <v>1932</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
         <v>137.41209404350045</v>
       </c>
       <c r="D34">
@@ -1938,7 +1970,7 @@
         <v>2.7002163923031319</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>71</v>
       </c>
@@ -1946,6 +1978,7 @@
         <v>1933</v>
       </c>
       <c r="C35">
+        <f t="shared" si="0"/>
         <v>141.70622198235984</v>
       </c>
       <c r="D35">
@@ -1961,7 +1994,7 @@
         <v>2.7845981545626048</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>71</v>
       </c>
@@ -1969,6 +2002,7 @@
         <v>1934</v>
       </c>
       <c r="C36">
+        <f t="shared" si="0"/>
         <v>146.00034992121923</v>
       </c>
       <c r="D36">
@@ -1984,7 +2018,7 @@
         <v>2.8689799168220778</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>71</v>
       </c>
@@ -1992,6 +2026,7 @@
         <v>1935</v>
       </c>
       <c r="C37">
+        <f t="shared" si="0"/>
         <v>150.29447786007862</v>
       </c>
       <c r="D37">
@@ -2007,7 +2042,7 @@
         <v>2.9533616790815507</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>71</v>
       </c>
@@ -2015,6 +2050,7 @@
         <v>1936</v>
       </c>
       <c r="C38">
+        <f t="shared" si="0"/>
         <v>154.588605798938</v>
       </c>
       <c r="D38">
@@ -2030,7 +2066,7 @@
         <v>3.0377434413410236</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>71</v>
       </c>
@@ -2038,6 +2074,7 @@
         <v>1937</v>
       </c>
       <c r="C39">
+        <f t="shared" si="0"/>
         <v>158.88273373779739</v>
       </c>
       <c r="D39">
@@ -2053,7 +2090,7 @@
         <v>3.1221252036004965</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -2061,6 +2098,7 @@
         <v>1938</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
         <v>163.17686167665678</v>
       </c>
       <c r="D40">
@@ -2076,7 +2114,7 @@
         <v>3.2065069658599694</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>71</v>
       </c>
@@ -2084,6 +2122,7 @@
         <v>1939</v>
       </c>
       <c r="C41">
+        <f t="shared" si="0"/>
         <v>167.47098961551617</v>
       </c>
       <c r="D41">
@@ -2099,7 +2138,7 @@
         <v>3.2908887281194423</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>71</v>
       </c>
@@ -2107,6 +2146,7 @@
         <v>1940</v>
       </c>
       <c r="C42">
+        <f t="shared" si="0"/>
         <v>171.76511755437556</v>
       </c>
       <c r="D42">
@@ -2122,7 +2162,7 @@
         <v>3.3752704903789152</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>71</v>
       </c>
@@ -2130,6 +2170,7 @@
         <v>1941</v>
       </c>
       <c r="C43">
+        <f t="shared" si="0"/>
         <v>176.05924549323495</v>
       </c>
       <c r="D43">
@@ -2145,7 +2186,7 @@
         <v>3.4596522526383882</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>71</v>
       </c>
@@ -2153,6 +2194,7 @@
         <v>1942</v>
       </c>
       <c r="C44">
+        <f t="shared" si="0"/>
         <v>180.35337343209434</v>
       </c>
       <c r="D44">
@@ -2168,7 +2210,7 @@
         <v>3.5440340148978611</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>71</v>
       </c>
@@ -2176,6 +2218,7 @@
         <v>1943</v>
       </c>
       <c r="C45">
+        <f t="shared" si="0"/>
         <v>184.64750137095373</v>
       </c>
       <c r="D45">
@@ -2191,7 +2234,7 @@
         <v>3.628415777157334</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>71</v>
       </c>
@@ -2199,6 +2242,7 @@
         <v>1944</v>
       </c>
       <c r="C46">
+        <f t="shared" si="0"/>
         <v>188.94162930981312</v>
       </c>
       <c r="D46">
@@ -2214,7 +2258,7 @@
         <v>3.7127975394168069</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>71</v>
       </c>
@@ -2222,6 +2266,7 @@
         <v>1945</v>
       </c>
       <c r="C47">
+        <f t="shared" si="0"/>
         <v>193.23575724867251</v>
       </c>
       <c r="D47">
@@ -2237,7 +2282,7 @@
         <v>3.7971793016762798</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>71</v>
       </c>
@@ -2245,6 +2290,7 @@
         <v>1946</v>
       </c>
       <c r="C48">
+        <f t="shared" si="0"/>
         <v>197.5298851875319</v>
       </c>
       <c r="D48">
@@ -2260,7 +2306,7 @@
         <v>3.8815610639357527</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>71</v>
       </c>
@@ -2268,6 +2314,7 @@
         <v>1947</v>
       </c>
       <c r="C49">
+        <f t="shared" si="0"/>
         <v>201.82401312639129</v>
       </c>
       <c r="D49">
@@ -2283,7 +2330,7 @@
         <v>3.9659428261952256</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>71</v>
       </c>
@@ -2291,6 +2338,7 @@
         <v>1948</v>
       </c>
       <c r="C50">
+        <f t="shared" si="0"/>
         <v>206.11814106525068</v>
       </c>
       <c r="D50">
@@ -2306,7 +2354,7 @@
         <v>4.0503245884546981</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>71</v>
       </c>
@@ -2314,6 +2362,7 @@
         <v>1949</v>
       </c>
       <c r="C51">
+        <f t="shared" si="0"/>
         <v>210.41226900411007</v>
       </c>
       <c r="D51">
@@ -2329,7 +2378,7 @@
         <v>4.134706350714171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -2352,7 +2401,7 @@
         <v>4.2190881129736422</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -2375,7 +2424,7 @@
         <v>4.4871259779449968</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -2398,7 +2447,7 @@
         <v>4.7719175135444134</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>71</v>
       </c>
@@ -2421,7 +2470,7 @@
         <v>5.0744739800179532</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -2444,7 +2493,7 @@
         <v>5.395862988627468</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>71</v>
       </c>
@@ -2467,7 +2516,7 @@
         <v>5.7372110252666717</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>71</v>
       </c>
@@ -2490,7 +2539,7 @@
         <v>6.0997060027976264</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>71</v>
       </c>
@@ -2513,7 +2562,7 @@
         <v>6.4845998287942965</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>71</v>
       </c>
@@ -2536,7 +2585,7 @@
         <v>6.893210973007684</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>71</v>
       </c>
@@ -2559,7 +2608,7 @@
         <v>7.3269270162321627</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -2582,7 +2631,7 @@
         <v>7.7872071593390562</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
@@ -2605,7 +2654,7 @@
         <v>8.2755846680369984</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>71</v>
       </c>
@@ -2628,7 +2677,7 @@
         <v>8.7936692254068962</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>71</v>
       </c>
@@ -2651,7 +2700,7 @@
         <v>9.3431491604335388</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>71</v>
       </c>
@@ -2674,7 +2723,7 @@
         <v>9.9257935166112397</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>71</v>
       </c>
@@ -2697,7 +2746,7 @@
         <v>10.54345392023798</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>71</v>
       </c>
@@ -2720,7 +2769,7 @@
         <v>11.198066203238838</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>71</v>
       </c>
@@ -2743,7 +2792,7 @@
         <v>11.891651730291006</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -2766,7 +2815,7 @@
         <v>12.626318374685651</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -2789,7 +2838,7 @@
         <v>13.404261081795061</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
@@ -2812,7 +2861,7 @@
         <v>14.227761953270035</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>71</v>
       </c>
@@ -2835,7 +2884,7 @@
         <v>15.099189779243064</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>71</v>
       </c>
@@ -2858,7 +2907,7 @@
         <v>16.020998939947269</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>71</v>
       </c>
@@ -2881,7 +2930,7 @@
         <v>16.99572759239215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>71</v>
       </c>
@@ -2904,7 +2953,7 @@
         <v>18.02599505220229</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>71</v>
       </c>
@@ -2927,7 +2976,7 @@
         <v>19.1144982755896</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>71</v>
       </c>
@@ -2950,7 +2999,7 @@
         <v>20.264007341888732</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>71</v>
       </c>
@@ -2973,7 +3022,7 @@
         <v>21.477359833365743</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>71</v>
       </c>
@@ -2996,7 +3045,7 @@
         <v>22.757454006373067</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>71</v>
       </c>
@@ -3019,7 +3068,7 @@
         <v>24.107240646662124</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>71</v>
       </c>
@@ -3042,7 +3091,7 @@
         <v>25.529713502106073</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>71</v>
       </c>
@@ -3065,7 +3114,7 @@
         <v>27.027898188585549</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>71</v>
       </c>
@@ -3088,7 +3137,7 @@
         <v>28.604839469732848</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>71</v>
       </c>
@@ -3111,7 +3160,7 @@
         <v>30.263586819016957</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>71</v>
       </c>
@@ -3134,7 +3183,7 @@
         <v>32.007178183695359</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>71</v>
       </c>
@@ -3157,7 +3206,7 @@
         <v>33.838621884867969</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>71</v>
       </c>
@@ -3180,7 +3229,7 @@
         <v>35.760876606635264</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>71</v>
       </c>
@@ -3203,7 +3252,7 @@
         <v>37.776829450539694</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>71</v>
       </c>
@@ -3226,7 +3275,7 @@
         <v>39.889272059348777</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>71</v>
       </c>
@@ -3249,7 +3298,7 @@
         <v>42.100874847024961</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>71</v>
       </c>
@@ -3272,7 +3321,7 @@
         <v>44.414159409506837</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>71</v>
       </c>
@@ -3295,7 +3344,7 @@
         <v>46.831469233637222</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>71</v>
       </c>
@@ -3318,7 +3367,7 @@
         <v>49.354938868968944</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>71</v>
       </c>
@@ -3341,7 +3390,7 @@
         <v>51.986461778797974</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>71</v>
       </c>
@@ -3364,7 +3413,7 @@
         <v>54.727657141906903</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>71</v>
       </c>
@@ -3387,7 +3436,7 @@
         <v>57.579835934171044</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>71</v>
       </c>
@@ -3410,7 +3459,7 @@
         <v>60.543966678113655</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>71</v>
       </c>
@@ -3433,7 +3482,7 @@
         <v>63.620641307131599</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>71</v>
       </c>
@@ -3456,7 +3505,7 @@
         <v>66.810041647592655</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>71</v>
       </c>
@@ -3479,7 +3528,7 @@
         <v>70.111907074212084</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>71</v>
       </c>
@@ -3502,7 +3551,7 @@
         <v>73.525503939711513</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>71</v>
       </c>
@@ -3525,7 +3574,7 @@
         <v>77.049597416255651</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>71</v>
       </c>
@@ -3548,7 +3597,7 @@
         <v>80.682426410998545</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>71</v>
       </c>
@@ -3571,7 +3620,7 @@
         <v>84.421682228743151</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>71</v>
       </c>
@@ -3594,7 +3643,7 @@
         <v>88.264491648896623</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>71</v>
       </c>
@@ -3617,7 +3666,7 @@
         <v>92.207405059579159</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>71</v>
       </c>
@@ -3640,7 +3689,7 @@
         <v>96.246390247382109</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>71</v>
       </c>
@@ -3663,7 +3712,7 @@
         <v>100.3768323759558</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>71</v>
       </c>
@@ -3686,7 +3735,7 @@
         <v>104.59354060018373</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>71</v>
       </c>
@@ -3709,7 +3758,7 @@
         <v>108.89076165588504</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>71</v>
       </c>
@@ -3732,7 +3781,7 @@
         <v>113.26220063944363</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>71</v>
       </c>
@@ -3755,7 +3804,7 @@
         <v>117.70104905013251</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>71</v>
       </c>
@@ -3778,7 +3827,7 @@
         <v>122.20002001377908</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>71</v>
       </c>
@@ -3801,7 +3850,7 @@
         <v>126.75139044425649</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>71</v>
       </c>
@@ -3824,7 +3873,7 @@
         <v>131.34704973426057</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>71</v>
       </c>
@@ -3847,7 +3896,7 @@
         <v>135.97855440461586</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>71</v>
       </c>
@@ -3870,7 +3919,7 @@
         <v>140.63718798787315</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>71</v>
       </c>
@@ -3893,7 +3942,7 @@
         <v>145.31402528309533</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>71</v>
       </c>
@@ -3916,7 +3965,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>71</v>
       </c>
@@ -3924,7 +3973,8 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>643.82816440237468</v>
+        <f>C$155/(1+(C$155/C$120-1)*EXP(-C$155*(C$120-C$119)*($B121-$B$120)/(C$120*(C$155-C$120))))</f>
+        <v>643.82666350851207</v>
       </c>
       <c r="D121">
         <v>537.70512415296525</v>
@@ -3939,7 +3989,7 @@
         <v>154.6844509218904</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>71</v>
       </c>
@@ -3947,7 +3997,8 @@
         <v>2020</v>
       </c>
       <c r="C122">
-        <v>644.57861481642988</v>
+        <f t="shared" ref="C122:C152" si="1">C$155/(1+(C$155/C$120-1)*EXP(-C$155*(C$120-C$119)*($B122-$B$120)/(C$120*(C$155-C$120))))</f>
+        <v>644.57258913236581</v>
       </c>
       <c r="D122">
         <v>542.95966322955519</v>
@@ -3962,7 +4013,7 @@
         <v>159.35977332739003</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>71</v>
       </c>
@@ -3970,7 +4021,8 @@
         <v>2021</v>
       </c>
       <c r="C123">
-        <v>645.3338647335687</v>
+        <f t="shared" si="1"/>
+        <v>645.32025690334171</v>
       </c>
       <c r="D123">
         <v>547.51172756987341</v>
@@ -3985,7 +4037,7 @@
         <v>164.01690971610992</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>71</v>
       </c>
@@ -3993,7 +4045,8 @@
         <v>2022</v>
       </c>
       <c r="C124">
-        <v>646.09395412394099</v>
+        <f t="shared" si="1"/>
+        <v>646.06967293177638</v>
       </c>
       <c r="D124">
         <v>551.44512328469307</v>
@@ -4008,7 +4061,7 @@
         <v>168.64694344887113</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>71</v>
       </c>
@@ -4016,7 +4069,8 @@
         <v>2023</v>
       </c>
       <c r="C125">
-        <v>646.85892339211739</v>
+        <f t="shared" si="1"/>
+        <v>646.82084335662046</v>
       </c>
       <c r="D125">
         <v>554.83640350613393</v>
@@ -4031,7 +4085,7 @@
         <v>173.24116628433646</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>71</v>
       </c>
@@ -4039,7 +4093,8 @@
         <v>2024</v>
       </c>
       <c r="C126">
-        <v>647.62881338301463</v>
+        <f t="shared" si="1"/>
+        <v>647.57377434563307</v>
       </c>
       <c r="D126">
         <v>557.75469808651746</v>
@@ -4054,7 +4109,7 @@
         <v>177.79114253388843</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>71</v>
       </c>
@@ -4062,7 +4117,8 @@
         <v>2025</v>
       </c>
       <c r="C127">
-        <v>648.40366538791966</v>
+        <f t="shared" si="1"/>
+        <v>648.32847209549664</v>
       </c>
       <c r="D127">
         <v>560.26184476340688</v>
@@ -4077,7 +4133,7 @@
         <v>182.28876885503078</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>71</v>
       </c>
@@ -4085,7 +4141,8 @@
         <v>2026</v>
       </c>
       <c r="C128">
-        <v>649.18352115061168</v>
+        <f t="shared" si="1"/>
+        <v>649.08494283199207</v>
       </c>
       <c r="D128">
         <v>562.41272464938652</v>
@@ -4100,7 +4157,7 @@
         <v>186.72632882197959</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>71</v>
       </c>
@@ -4108,7 +4165,8 @@
         <v>2027</v>
       </c>
       <c r="C129">
-        <v>649.96842287358629</v>
+        <f t="shared" si="1"/>
+        <v>649.84319281021374</v>
       </c>
       <c r="D129">
         <v>564.25572577709784</v>
@@ -4123,7 +4181,7 @@
         <v>191.09654155059053</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>71</v>
       </c>
@@ -4131,7 +4189,8 @@
         <v>2028</v>
       </c>
       <c r="C130">
-        <v>650.75841322438202</v>
+        <f t="shared" si="1"/>
+        <v>650.60322831470887</v>
       </c>
       <c r="D130">
         <v>565.83327697483048</v>
@@ -4146,7 +4205,7 @@
         <v>195.39260380782673</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>71</v>
       </c>
@@ -4154,7 +4213,8 @@
         <v>2029</v>
       </c>
       <c r="C131">
-        <v>651.55353534201311</v>
+        <f t="shared" si="1"/>
+        <v>651.36505565962955</v>
       </c>
       <c r="D131">
         <v>567.18240994704286</v>
@@ -4169,7 +4229,7 @@
         <v>199.60822519775508</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>71</v>
       </c>
@@ -4177,7 +4237,8 @@
         <v>2030</v>
       </c>
       <c r="C132">
-        <v>652.35383284350814</v>
+        <f t="shared" si="1"/>
+        <v>652.12868118898405</v>
       </c>
       <c r="D132">
         <v>568.33532001834556</v>
@@ -4192,7 +4253,7 @@
         <v>203.73765618065772</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>71</v>
       </c>
@@ -4200,7 +4261,8 @@
         <v>2031</v>
       </c>
       <c r="C133">
-        <v>653.15934983055899</v>
+        <f t="shared" si="1"/>
+        <v>652.89411127671451</v>
       </c>
       <c r="D133">
         <v>569.31990580733509</v>
@@ -4215,7 +4277,7 @@
         <v>207.77570884359974</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>71</v>
       </c>
@@ -4223,7 +4285,8 @@
         <v>2032</v>
       </c>
       <c r="C134">
-        <v>653.97013089628035</v>
+        <f t="shared" si="1"/>
+        <v>653.66135232696729</v>
       </c>
       <c r="D134">
         <v>570.16027551037655</v>
@@ -4238,7 +4301,7 @@
         <v>211.7177704945525</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>71</v>
       </c>
@@ -4246,7 +4309,8 @@
         <v>2033</v>
       </c>
       <c r="C135">
-        <v>654.78622113208394</v>
+        <f t="shared" si="1"/>
+        <v>654.43041077418923</v>
       </c>
       <c r="D135">
         <v>570.87721291771527</v>
@@ -4261,7 +4325,7 @@
         <v>215.55981029348561</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>71</v>
       </c>
@@ -4269,7 +4333,8 @@
         <v>2034</v>
       </c>
       <c r="C136">
-        <v>655.60766613466717</v>
+        <f t="shared" si="1"/>
+        <v>655.20129308335709</v>
       </c>
       <c r="D136">
         <v>571.488600159611</v>
@@ -4284,7 +4349,7 @@
         <v>219.29837925912562</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>71</v>
       </c>
@@ -4292,7 +4357,8 @@
         <v>2035</v>
       </c>
       <c r="C137">
-        <v>656.43451201312098</v>
+        <f t="shared" si="1"/>
+        <v>655.97400575017537</v>
       </c>
       <c r="D137">
         <v>572.00979684567176</v>
@@ -4307,7 +4373,7 @@
         <v>222.93060409670159</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>71</v>
       </c>
@@ -4315,7 +4381,8 @@
         <v>2036</v>
       </c>
       <c r="C138">
-        <v>657.26680539615757</v>
+        <f t="shared" si="1"/>
+        <v>656.74855530119771</v>
       </c>
       <c r="D138">
         <v>572.45397701542265</v>
@@ -4330,7 +4397,7 @@
         <v>226.45417537829078</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>71</v>
       </c>
@@ -4338,7 +4405,8 @@
         <v>2037</v>
       </c>
       <c r="C139">
-        <v>658.10459343946161</v>
+        <f t="shared" si="1"/>
+        <v>657.52494829404964</v>
       </c>
       <c r="D139">
         <v>572.83242640381229</v>
@@ -4353,7 +4421,7 @@
         <v>229.86733067262662</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>71</v>
       </c>
@@ -4361,7 +4429,8 @@
         <v>2038</v>
       </c>
       <c r="C140">
-        <v>658.94792383316553</v>
+        <f t="shared" si="1"/>
+        <v>658.30319131762462</v>
       </c>
       <c r="D140">
         <v>573.1548031309494</v>
@@ -4376,7 +4445,7 @@
         <v>233.168833265584</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>71</v>
       </c>
@@ -4384,7 +4453,8 @@
         <v>2039</v>
       </c>
       <c r="C141">
-        <v>659.79684480945377</v>
+        <f t="shared" si="1"/>
+        <v>659.08329099223704</v>
       </c>
       <c r="D141">
         <v>573.42936519553848</v>
@@ -4399,7 +4469,7 @@
         <v>236.35794713692704</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>71</v>
       </c>
@@ -4407,7 +4477,8 @@
         <v>2040</v>
       </c>
       <c r="C142">
-        <v>660.65140515029691</v>
+        <f t="shared" si="1"/>
+        <v>659.86525396982677</v>
       </c>
       <c r="D142">
         <v>573.66316819455642</v>
@@ -4422,7 +4493,7 @@
         <v>239.43440886480903</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>71</v>
       </c>
@@ -4430,7 +4501,8 @@
         <v>2041</v>
       </c>
       <c r="C143">
-        <v>661.51165419531867</v>
+        <f t="shared" si="1"/>
+        <v>660.64908693415919</v>
       </c>
       <c r="D143">
         <v>573.86223658719234</v>
@@ -4445,7 +4517,7 @@
         <v>242.39839711896803</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>71</v>
       </c>
@@ -4453,7 +4525,8 @@
         <v>2042</v>
       </c>
       <c r="C144">
-        <v>662.37764184979847</v>
+        <f t="shared" si="1"/>
+        <v>661.43479660101605</v>
       </c>
       <c r="D144">
         <v>574.03171162624028</v>
@@ -4468,7 +4541,7 @@
         <v>245.25050037887183</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>71</v>
       </c>
@@ -4476,7 +4549,8 @@
         <v>2043</v>
       </c>
       <c r="C145">
-        <v>663.24941859281262</v>
+        <f t="shared" si="1"/>
+        <v>662.22238971833053</v>
       </c>
       <c r="D145">
         <v>574.17597883534631</v>
@@ -4491,7 +4565,7 @@
         <v>247.99168347673776</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>71</v>
       </c>
@@ -4499,7 +4573,8 @@
         <v>2044</v>
       </c>
       <c r="C146">
-        <v>664.12703548551588</v>
+        <f t="shared" si="1"/>
+        <v>663.01187306647114</v>
       </c>
       <c r="D146">
         <v>574.29877764358332</v>
@@ -4514,7 +4589,7 @@
         <v>250.62325351993292</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>71</v>
       </c>
@@ -4522,7 +4597,8 @@
         <v>2045</v>
       </c>
       <c r="C147">
-        <v>665.01054417956891</v>
+        <f t="shared" si="1"/>
+        <v>663.80325345836798</v>
       </c>
       <c r="D147">
         <v>574.40329551834611</v>
@@ -4537,7 +4613,7 @@
         <v>253.1468256952293</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>71</v>
       </c>
@@ -4545,7 +4621,8 @@
         <v>2046</v>
       </c>
       <c r="C148">
-        <v>665.8999969257103</v>
+        <f t="shared" si="1"/>
+        <v>664.59653773974856</v>
       </c>
       <c r="D148">
         <v>574.4922486754599</v>
@@ -4560,7 +4637,7 @@
         <v>255.56428940107912</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>71</v>
       </c>
@@ -4568,7 +4645,8 @@
         <v>2047</v>
       </c>
       <c r="C149">
-        <v>666.7954465824796</v>
+        <f t="shared" si="1"/>
+        <v>665.3917327892957</v>
       </c>
       <c r="D149">
         <v>574.56795119890705</v>
@@ -4583,7 +4661,7 @@
         <v>257.877775095603</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>71</v>
       </c>
@@ -4591,7 +4669,8 @@
         <v>2048</v>
       </c>
       <c r="C150">
-        <v>667.69694662509426</v>
+        <f t="shared" si="1"/>
+        <v>666.18884551886845</v>
       </c>
       <c r="D150">
         <v>574.63237417563062</v>
@@ -4606,7 +4685,7 @@
         <v>260.08962218919692</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>71</v>
       </c>
@@ -4614,7 +4693,8 @@
         <v>2049</v>
       </c>
       <c r="C151">
-        <v>668.60455115448099</v>
+        <f t="shared" si="1"/>
+        <v>666.98788287374884</v>
       </c>
       <c r="D151">
         <v>574.68719624518701</v>
@@ -4629,7 +4709,7 @@
         <v>262.20234825312951</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>71</v>
       </c>
@@ -4637,7 +4717,8 @@
         <v>2050</v>
       </c>
       <c r="C152">
-        <v>669.51831490646805</v>
+        <f t="shared" si="1"/>
+        <v>667.78885183273439</v>
       </c>
       <c r="D152">
         <v>574.73384677980528</v>
@@ -4652,7 +4733,7 @@
         <v>264.21861976048029</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>66</v>
       </c>
@@ -4675,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>66</v>
       </c>
@@ -4683,6 +4764,7 @@
         <v>1901</v>
       </c>
       <c r="C154">
+        <f>C153+(C$52-C$2)/50</f>
         <v>4.2941279388593872</v>
       </c>
       <c r="D154">
@@ -4698,7 +4780,7 @@
         <v>8.4381762259472845E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>66</v>
       </c>
@@ -4706,6 +4788,7 @@
         <v>1902</v>
       </c>
       <c r="C155">
+        <f t="shared" ref="C155:C202" si="2">C154+(C$52-C$2)/50</f>
         <v>8.5882558777187743</v>
       </c>
       <c r="D155">
@@ -4721,7 +4804,7 @@
         <v>0.16876352451894569</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>66</v>
       </c>
@@ -4729,6 +4812,7 @@
         <v>1903</v>
       </c>
       <c r="C156">
+        <f t="shared" si="2"/>
         <v>12.882383816578162</v>
       </c>
       <c r="D156">
@@ -4744,7 +4828,7 @@
         <v>0.25314528677841852</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>66</v>
       </c>
@@ -4752,6 +4836,7 @@
         <v>1904</v>
       </c>
       <c r="C157">
+        <f t="shared" si="2"/>
         <v>17.176511755437549</v>
       </c>
       <c r="D157">
@@ -4767,7 +4852,7 @@
         <v>0.33752704903789138</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>66</v>
       </c>
@@ -4775,6 +4860,7 @@
         <v>1905</v>
       </c>
       <c r="C158">
+        <f t="shared" si="2"/>
         <v>21.470639694296935</v>
       </c>
       <c r="D158">
@@ -4790,7 +4876,7 @@
         <v>0.42190881129736424</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>66</v>
       </c>
@@ -4798,6 +4884,7 @@
         <v>1906</v>
       </c>
       <c r="C159">
+        <f t="shared" si="2"/>
         <v>25.764767633156321</v>
       </c>
       <c r="D159">
@@ -4813,7 +4900,7 @@
         <v>0.50629057355683704</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
         <v>66</v>
       </c>
@@ -4821,6 +4908,7 @@
         <v>1907</v>
       </c>
       <c r="C160">
+        <f t="shared" si="2"/>
         <v>30.058895572015707</v>
       </c>
       <c r="D160">
@@ -4836,7 +4924,7 @@
         <v>0.59067233581630985</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
         <v>66</v>
       </c>
@@ -4844,6 +4932,7 @@
         <v>1908</v>
       </c>
       <c r="C161">
+        <f t="shared" si="2"/>
         <v>34.353023510875097</v>
       </c>
       <c r="D161">
@@ -4859,7 +4948,7 @@
         <v>0.67505409807578265</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>66</v>
       </c>
@@ -4867,6 +4956,7 @@
         <v>1909</v>
       </c>
       <c r="C162">
+        <f t="shared" si="2"/>
         <v>38.647151449734487</v>
       </c>
       <c r="D162">
@@ -4882,7 +4972,7 @@
         <v>0.75943586033525545</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>66</v>
       </c>
@@ -4890,6 +4980,7 @@
         <v>1910</v>
       </c>
       <c r="C163">
+        <f t="shared" si="2"/>
         <v>42.941279388593877</v>
       </c>
       <c r="D163">
@@ -4905,7 +4996,7 @@
         <v>0.84381762259472826</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
         <v>66</v>
       </c>
@@ -4913,6 +5004,7 @@
         <v>1911</v>
       </c>
       <c r="C164">
+        <f t="shared" si="2"/>
         <v>47.235407327453267</v>
       </c>
       <c r="D164">
@@ -4928,7 +5020,7 @@
         <v>0.92819938485420106</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>66</v>
       </c>
@@ -4936,6 +5028,7 @@
         <v>1912</v>
       </c>
       <c r="C165">
+        <f t="shared" si="2"/>
         <v>51.529535266312656</v>
       </c>
       <c r="D165">
@@ -4951,7 +5044,7 @@
         <v>1.0125811471136739</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
         <v>66</v>
       </c>
@@ -4959,6 +5052,7 @@
         <v>1913</v>
       </c>
       <c r="C166">
+        <f t="shared" si="2"/>
         <v>55.823663205172046</v>
       </c>
       <c r="D166">
@@ -4974,7 +5068,7 @@
         <v>1.0969629093731468</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
         <v>66</v>
       </c>
@@ -4982,6 +5076,7 @@
         <v>1914</v>
       </c>
       <c r="C167">
+        <f t="shared" si="2"/>
         <v>60.117791144031436</v>
       </c>
       <c r="D167">
@@ -4997,7 +5092,7 @@
         <v>1.1813446716326197</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
         <v>66</v>
       </c>
@@ -5005,6 +5100,7 @@
         <v>1915</v>
       </c>
       <c r="C168">
+        <f t="shared" si="2"/>
         <v>64.411919082890819</v>
       </c>
       <c r="D168">
@@ -5020,7 +5116,7 @@
         <v>1.2657264338920926</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>66</v>
       </c>
@@ -5028,6 +5124,7 @@
         <v>1916</v>
       </c>
       <c r="C169">
+        <f t="shared" si="2"/>
         <v>68.706047021750209</v>
       </c>
       <c r="D169">
@@ -5043,7 +5140,7 @@
         <v>1.3501081961515655</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
         <v>66</v>
       </c>
@@ -5051,6 +5148,7 @@
         <v>1917</v>
       </c>
       <c r="C170">
+        <f t="shared" si="2"/>
         <v>73.000174960609598</v>
       </c>
       <c r="D170">
@@ -5066,7 +5164,7 @@
         <v>1.4344899584110384</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>66</v>
       </c>
@@ -5074,6 +5172,7 @@
         <v>1918</v>
       </c>
       <c r="C171">
+        <f t="shared" si="2"/>
         <v>77.294302899468988</v>
       </c>
       <c r="D171">
@@ -5089,7 +5188,7 @@
         <v>1.5188717206705113</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>66</v>
       </c>
@@ -5097,6 +5196,7 @@
         <v>1919</v>
       </c>
       <c r="C172">
+        <f t="shared" si="2"/>
         <v>81.588430838328378</v>
       </c>
       <c r="D172">
@@ -5112,7 +5212,7 @@
         <v>1.6032534829299843</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>66</v>
       </c>
@@ -5120,6 +5220,7 @@
         <v>1920</v>
       </c>
       <c r="C173">
+        <f t="shared" si="2"/>
         <v>85.882558777187768</v>
       </c>
       <c r="D173">
@@ -5135,7 +5236,7 @@
         <v>1.6876352451894572</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>66</v>
       </c>
@@ -5143,6 +5244,7 @@
         <v>1921</v>
       </c>
       <c r="C174">
+        <f t="shared" si="2"/>
         <v>90.176686716047158</v>
       </c>
       <c r="D174">
@@ -5158,7 +5260,7 @@
         <v>1.7720170074489301</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>66</v>
       </c>
@@ -5166,6 +5268,7 @@
         <v>1922</v>
       </c>
       <c r="C175">
+        <f t="shared" si="2"/>
         <v>94.470814654906548</v>
       </c>
       <c r="D175">
@@ -5181,7 +5284,7 @@
         <v>1.856398769708403</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
         <v>66</v>
       </c>
@@ -5189,6 +5292,7 @@
         <v>1923</v>
       </c>
       <c r="C176">
+        <f t="shared" si="2"/>
         <v>98.764942593765937</v>
       </c>
       <c r="D176">
@@ -5204,7 +5308,7 @@
         <v>1.9407805319678759</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>66</v>
       </c>
@@ -5212,6 +5316,7 @@
         <v>1924</v>
       </c>
       <c r="C177">
+        <f t="shared" si="2"/>
         <v>103.05907053262533</v>
       </c>
       <c r="D177">
@@ -5227,7 +5332,7 @@
         <v>2.0251622942273486</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>66</v>
       </c>
@@ -5235,6 +5340,7 @@
         <v>1925</v>
       </c>
       <c r="C178">
+        <f t="shared" si="2"/>
         <v>107.35319847148472</v>
       </c>
       <c r="D178">
@@ -5250,7 +5356,7 @@
         <v>2.1095440564868215</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>66</v>
       </c>
@@ -5258,6 +5364,7 @@
         <v>1926</v>
       </c>
       <c r="C179">
+        <f t="shared" si="2"/>
         <v>111.64732641034411</v>
       </c>
       <c r="D179">
@@ -5273,7 +5380,7 @@
         <v>2.1939258187462944</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>66</v>
       </c>
@@ -5281,6 +5388,7 @@
         <v>1927</v>
       </c>
       <c r="C180">
+        <f t="shared" si="2"/>
         <v>115.9414543492035</v>
       </c>
       <c r="D180">
@@ -5296,7 +5404,7 @@
         <v>2.2783075810057674</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>66</v>
       </c>
@@ -5304,6 +5412,7 @@
         <v>1928</v>
       </c>
       <c r="C181">
+        <f t="shared" si="2"/>
         <v>120.23558228806289</v>
       </c>
       <c r="D181">
@@ -5319,7 +5428,7 @@
         <v>2.3626893432652403</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
         <v>66</v>
       </c>
@@ -5327,6 +5436,7 @@
         <v>1929</v>
       </c>
       <c r="C182">
+        <f t="shared" si="2"/>
         <v>124.52971022692228</v>
       </c>
       <c r="D182">
@@ -5342,7 +5452,7 @@
         <v>2.4470711055247132</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>66</v>
       </c>
@@ -5350,6 +5460,7 @@
         <v>1930</v>
       </c>
       <c r="C183">
+        <f t="shared" si="2"/>
         <v>128.82383816578167</v>
       </c>
       <c r="D183">
@@ -5365,7 +5476,7 @@
         <v>2.5314528677841861</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
         <v>66</v>
       </c>
@@ -5373,6 +5484,7 @@
         <v>1931</v>
       </c>
       <c r="C184">
+        <f t="shared" si="2"/>
         <v>133.11796610464106</v>
       </c>
       <c r="D184">
@@ -5388,7 +5500,7 @@
         <v>2.615834630043659</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>66</v>
       </c>
@@ -5396,6 +5508,7 @@
         <v>1932</v>
       </c>
       <c r="C185">
+        <f t="shared" si="2"/>
         <v>137.41209404350045</v>
       </c>
       <c r="D185">
@@ -5411,7 +5524,7 @@
         <v>2.7002163923031319</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>66</v>
       </c>
@@ -5419,6 +5532,7 @@
         <v>1933</v>
       </c>
       <c r="C186">
+        <f t="shared" si="2"/>
         <v>141.70622198235984</v>
       </c>
       <c r="D186">
@@ -5434,7 +5548,7 @@
         <v>2.7845981545626048</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>66</v>
       </c>
@@ -5442,6 +5556,7 @@
         <v>1934</v>
       </c>
       <c r="C187">
+        <f t="shared" si="2"/>
         <v>146.00034992121923</v>
       </c>
       <c r="D187">
@@ -5457,7 +5572,7 @@
         <v>2.8689799168220778</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
         <v>66</v>
       </c>
@@ -5465,6 +5580,7 @@
         <v>1935</v>
       </c>
       <c r="C188">
+        <f t="shared" si="2"/>
         <v>150.29447786007862</v>
       </c>
       <c r="D188">
@@ -5480,7 +5596,7 @@
         <v>2.9533616790815507</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>66</v>
       </c>
@@ -5488,6 +5604,7 @@
         <v>1936</v>
       </c>
       <c r="C189">
+        <f t="shared" si="2"/>
         <v>154.588605798938</v>
       </c>
       <c r="D189">
@@ -5503,7 +5620,7 @@
         <v>3.0377434413410236</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
         <v>66</v>
       </c>
@@ -5511,6 +5628,7 @@
         <v>1937</v>
       </c>
       <c r="C190">
+        <f t="shared" si="2"/>
         <v>158.88273373779739</v>
       </c>
       <c r="D190">
@@ -5526,7 +5644,7 @@
         <v>3.1221252036004965</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
         <v>66</v>
       </c>
@@ -5534,6 +5652,7 @@
         <v>1938</v>
       </c>
       <c r="C191">
+        <f t="shared" si="2"/>
         <v>163.17686167665678</v>
       </c>
       <c r="D191">
@@ -5549,7 +5668,7 @@
         <v>3.2065069658599694</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
         <v>66</v>
       </c>
@@ -5557,6 +5676,7 @@
         <v>1939</v>
       </c>
       <c r="C192">
+        <f t="shared" si="2"/>
         <v>167.47098961551617</v>
       </c>
       <c r="D192">
@@ -5572,7 +5692,7 @@
         <v>3.2908887281194423</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
         <v>66</v>
       </c>
@@ -5580,6 +5700,7 @@
         <v>1940</v>
       </c>
       <c r="C193">
+        <f t="shared" si="2"/>
         <v>171.76511755437556</v>
       </c>
       <c r="D193">
@@ -5595,7 +5716,7 @@
         <v>3.3752704903789152</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
         <v>66</v>
       </c>
@@ -5603,6 +5724,7 @@
         <v>1941</v>
       </c>
       <c r="C194">
+        <f t="shared" si="2"/>
         <v>176.05924549323495</v>
       </c>
       <c r="D194">
@@ -5618,7 +5740,7 @@
         <v>3.4596522526383882</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>66</v>
       </c>
@@ -5626,6 +5748,7 @@
         <v>1942</v>
       </c>
       <c r="C195">
+        <f t="shared" si="2"/>
         <v>180.35337343209434</v>
       </c>
       <c r="D195">
@@ -5641,7 +5764,7 @@
         <v>3.5440340148978611</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>66</v>
       </c>
@@ -5649,6 +5772,7 @@
         <v>1943</v>
       </c>
       <c r="C196">
+        <f t="shared" si="2"/>
         <v>184.64750137095373</v>
       </c>
       <c r="D196">
@@ -5664,7 +5788,7 @@
         <v>3.628415777157334</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>66</v>
       </c>
@@ -5672,6 +5796,7 @@
         <v>1944</v>
       </c>
       <c r="C197">
+        <f t="shared" si="2"/>
         <v>188.94162930981312</v>
       </c>
       <c r="D197">
@@ -5687,7 +5812,7 @@
         <v>3.7127975394168069</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>66</v>
       </c>
@@ -5695,6 +5820,7 @@
         <v>1945</v>
       </c>
       <c r="C198">
+        <f t="shared" si="2"/>
         <v>193.23575724867251</v>
       </c>
       <c r="D198">
@@ -5710,7 +5836,7 @@
         <v>3.7971793016762798</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>66</v>
       </c>
@@ -5718,6 +5844,7 @@
         <v>1946</v>
       </c>
       <c r="C199">
+        <f t="shared" si="2"/>
         <v>197.5298851875319</v>
       </c>
       <c r="D199">
@@ -5733,7 +5860,7 @@
         <v>3.8815610639357527</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>66</v>
       </c>
@@ -5741,6 +5868,7 @@
         <v>1947</v>
       </c>
       <c r="C200">
+        <f t="shared" si="2"/>
         <v>201.82401312639129</v>
       </c>
       <c r="D200">
@@ -5756,7 +5884,7 @@
         <v>3.9659428261952256</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>66</v>
       </c>
@@ -5764,6 +5892,7 @@
         <v>1948</v>
       </c>
       <c r="C201">
+        <f t="shared" si="2"/>
         <v>206.11814106525068</v>
       </c>
       <c r="D201">
@@ -5779,7 +5908,7 @@
         <v>4.0503245884546981</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
         <v>66</v>
       </c>
@@ -5787,6 +5916,7 @@
         <v>1949</v>
       </c>
       <c r="C202">
+        <f t="shared" si="2"/>
         <v>210.41226900411007</v>
       </c>
       <c r="D202">
@@ -5802,7 +5932,7 @@
         <v>4.134706350714171</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>66</v>
       </c>
@@ -5825,7 +5955,7 @@
         <v>4.2190881129736422</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
         <v>66</v>
       </c>
@@ -5848,7 +5978,7 @@
         <v>4.4871259779449968</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
         <v>66</v>
       </c>
@@ -5871,7 +6001,7 @@
         <v>4.7719175135444134</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
         <v>66</v>
       </c>
@@ -5894,7 +6024,7 @@
         <v>5.0744739800179532</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>66</v>
       </c>
@@ -5917,7 +6047,7 @@
         <v>5.395862988627468</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>66</v>
       </c>
@@ -5940,7 +6070,7 @@
         <v>5.7372110252666717</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>66</v>
       </c>
@@ -5963,7 +6093,7 @@
         <v>6.0997060027976264</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
         <v>66</v>
       </c>
@@ -5986,7 +6116,7 @@
         <v>6.4845998287942965</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>66</v>
       </c>
@@ -6009,7 +6139,7 @@
         <v>6.893210973007684</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
         <v>66</v>
       </c>
@@ -6032,7 +6162,7 @@
         <v>7.3269270162321627</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>66</v>
       </c>
@@ -6055,7 +6185,7 @@
         <v>7.7872071593390562</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>66</v>
       </c>
@@ -6078,7 +6208,7 @@
         <v>8.2755846680369984</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>66</v>
       </c>
@@ -6101,7 +6231,7 @@
         <v>8.7936692254068962</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
         <v>66</v>
       </c>
@@ -6124,7 +6254,7 @@
         <v>9.3431491604335388</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>66</v>
       </c>
@@ -6147,7 +6277,7 @@
         <v>9.9257935166112397</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
         <v>66</v>
       </c>
@@ -6170,7 +6300,7 @@
         <v>10.54345392023798</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>66</v>
       </c>
@@ -6193,7 +6323,7 @@
         <v>11.198066203238838</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>66</v>
       </c>
@@ -6216,7 +6346,7 @@
         <v>11.891651730291006</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>66</v>
       </c>
@@ -6239,7 +6369,7 @@
         <v>12.626318374685651</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
         <v>66</v>
       </c>
@@ -6262,7 +6392,7 @@
         <v>13.404261081795061</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>66</v>
       </c>
@@ -6285,7 +6415,7 @@
         <v>14.227761953270035</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
         <v>66</v>
       </c>
@@ -6308,7 +6438,7 @@
         <v>15.099189779243064</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>66</v>
       </c>
@@ -6331,7 +6461,7 @@
         <v>16.020998939947269</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
         <v>66</v>
       </c>
@@ -6354,7 +6484,7 @@
         <v>16.99572759239215</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
         <v>66</v>
       </c>
@@ -6377,7 +6507,7 @@
         <v>18.02599505220229</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
         <v>66</v>
       </c>
@@ -6400,7 +6530,7 @@
         <v>19.1144982755896</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
         <v>66</v>
       </c>
@@ -6423,7 +6553,7 @@
         <v>20.264007341888732</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
         <v>66</v>
       </c>
@@ -6446,7 +6576,7 @@
         <v>21.477359833365743</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>66</v>
       </c>
@@ -6469,7 +6599,7 @@
         <v>22.757454006373067</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
         <v>66</v>
       </c>
@@ -6492,7 +6622,7 @@
         <v>24.107240646662124</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
         <v>66</v>
       </c>
@@ -6515,7 +6645,7 @@
         <v>25.529713502106073</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>66</v>
       </c>
@@ -6538,7 +6668,7 @@
         <v>27.027898188585549</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
         <v>66</v>
       </c>
@@ -6561,7 +6691,7 @@
         <v>28.604839469732848</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
         <v>66</v>
       </c>
@@ -6584,7 +6714,7 @@
         <v>30.263586819016957</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
         <v>66</v>
       </c>
@@ -6607,7 +6737,7 @@
         <v>32.007178183695359</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
         <v>66</v>
       </c>
@@ -6630,7 +6760,7 @@
         <v>33.838621884867969</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
         <v>66</v>
       </c>
@@ -6653,7 +6783,7 @@
         <v>35.760876606635264</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
         <v>66</v>
       </c>
@@ -6676,7 +6806,7 @@
         <v>37.776829450539694</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>66</v>
       </c>
@@ -6699,7 +6829,7 @@
         <v>39.889272059348777</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
         <v>66</v>
       </c>
@@ -6722,7 +6852,7 @@
         <v>42.100874847024961</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
         <v>66</v>
       </c>
@@ -6745,7 +6875,7 @@
         <v>44.414159409506837</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
         <v>66</v>
       </c>
@@ -6768,7 +6898,7 @@
         <v>46.831469233637222</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
         <v>66</v>
       </c>
@@ -6791,7 +6921,7 @@
         <v>49.354938868968944</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
         <v>66</v>
       </c>
@@ -6814,7 +6944,7 @@
         <v>51.986461778797974</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
         <v>66</v>
       </c>
@@ -6837,7 +6967,7 @@
         <v>54.727657141906903</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
         <v>66</v>
       </c>
@@ -6860,7 +6990,7 @@
         <v>57.579835934171044</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
         <v>66</v>
       </c>
@@ -6883,7 +7013,7 @@
         <v>60.543966678113655</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
         <v>66</v>
       </c>
@@ -6906,7 +7036,7 @@
         <v>63.620641307131599</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
         <v>66</v>
       </c>
@@ -6929,7 +7059,7 @@
         <v>66.810041647592655</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
         <v>66</v>
       </c>
@@ -6952,7 +7082,7 @@
         <v>70.111907074212084</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
         <v>66</v>
       </c>
@@ -6975,7 +7105,7 @@
         <v>73.525503939711513</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
         <v>66</v>
       </c>
@@ -6998,7 +7128,7 @@
         <v>77.049597416255651</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
         <v>66</v>
       </c>
@@ -7021,7 +7151,7 @@
         <v>80.682426410998545</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
         <v>66</v>
       </c>
@@ -7044,7 +7174,7 @@
         <v>84.421682228743151</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
         <v>66</v>
       </c>
@@ -7067,7 +7197,7 @@
         <v>88.264491648896623</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
         <v>66</v>
       </c>
@@ -7090,7 +7220,7 @@
         <v>92.207405059579159</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>66</v>
       </c>
@@ -7113,7 +7243,7 @@
         <v>96.246390247382109</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
         <v>66</v>
       </c>
@@ -7136,7 +7266,7 @@
         <v>100.3768323759558</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
         <v>66</v>
       </c>
@@ -7159,7 +7289,7 @@
         <v>104.59354060018373</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
         <v>66</v>
       </c>
@@ -7182,7 +7312,7 @@
         <v>108.89076165588504</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
         <v>66</v>
       </c>
@@ -7205,7 +7335,7 @@
         <v>113.26220063944363</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
         <v>66</v>
       </c>
@@ -7228,7 +7358,7 @@
         <v>117.70104905013251</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
         <v>66</v>
       </c>
@@ -7251,7 +7381,7 @@
         <v>122.20002001377908</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
         <v>66</v>
       </c>
@@ -7274,7 +7404,7 @@
         <v>126.75139044425649</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
         <v>66</v>
       </c>
@@ -7297,7 +7427,7 @@
         <v>131.34704973426057</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
         <v>66</v>
       </c>
@@ -7320,7 +7450,7 @@
         <v>135.97855440461586</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
         <v>66</v>
       </c>
@@ -7343,7 +7473,7 @@
         <v>140.63718798787315</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
         <v>66</v>
       </c>
@@ -7366,7 +7496,7 @@
         <v>145.31402528309533</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
         <v>66</v>
       </c>
@@ -7389,7 +7519,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
         <v>66</v>
       </c>
@@ -7397,7 +7527,8 @@
         <v>2019</v>
       </c>
       <c r="C272">
-        <v>643.82138712131405</v>
+        <f>C$155/(1+(C$155/C$120-1)*EXP(-C$155*(C$120-C$119)*($B272-$B$120)/(C$120*(C$155-C$120))))</f>
+        <v>643.82666350851207</v>
       </c>
       <c r="D272">
         <v>537.94978498685168</v>
@@ -7412,7 +7543,7 @@
         <v>154.72738518174995</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="7" t="s">
         <v>66</v>
       </c>
@@ -7420,7 +7551,8 @@
         <v>2020</v>
       </c>
       <c r="C273">
-        <v>644.55153470487596</v>
+        <f t="shared" ref="C273:C303" si="3">C$155/(1+(C$155/C$120-1)*EXP(-C$155*(C$120-C$119)*($B273-$B$120)/(C$120*(C$155-C$120))))</f>
+        <v>644.57258913236581</v>
       </c>
       <c r="D273">
         <v>543.88249354205504</v>
@@ -7435,7 +7567,7 @@
         <v>159.53584703767842</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
         <v>66</v>
       </c>
@@ -7443,7 +7575,8 @@
         <v>2021</v>
       </c>
       <c r="C274">
-        <v>645.27299928890579</v>
+        <f t="shared" si="3"/>
+        <v>645.32025690334171</v>
       </c>
       <c r="D274">
         <v>549.46764301994938</v>
@@ -7458,7 +7591,7 @@
         <v>164.42258002782114</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
         <v>66</v>
       </c>
@@ -7466,7 +7599,8 @@
         <v>2022</v>
       </c>
       <c r="C275">
-        <v>645.98586324297241</v>
+        <f t="shared" si="3"/>
+        <v>646.06967293177638</v>
       </c>
       <c r="D275">
         <v>554.71793346780737</v>
@@ -7481,7 +7615,7 @@
         <v>169.38452825593603</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="7" t="s">
         <v>66</v>
       </c>
@@ -7489,7 +7623,8 @@
         <v>2023</v>
       </c>
       <c r="C276">
-        <v>646.69020870179975</v>
+        <f t="shared" si="3"/>
+        <v>646.82084335662046</v>
       </c>
       <c r="D276">
         <v>559.6466806402791</v>
@@ -7504,7 +7639,7 @@
         <v>174.41838907148565</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="7" t="s">
         <v>66</v>
       </c>
@@ -7512,7 +7647,8 @@
         <v>2024</v>
       </c>
       <c r="C277">
-        <v>647.38611754974022</v>
+        <f t="shared" si="3"/>
+        <v>647.57377434563307</v>
       </c>
       <c r="D277">
         <v>564.26762640159677</v>
@@ -7527,7 +7663,7 @@
         <v>179.52061824765855</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
         <v>66</v>
       </c>
@@ -7535,7 +7671,8 @@
         <v>2025</v>
       </c>
       <c r="C278">
-        <v>648.07367140575138</v>
+        <f t="shared" si="3"/>
+        <v>648.32847209549664</v>
       </c>
       <c r="D278">
         <v>568.59476893449175</v>
@@ -7550,7 +7687,7 @@
         <v>184.68743675998067</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="7" t="s">
         <v>66</v>
       </c>
@@ -7558,7 +7695,8 @@
         <v>2026</v>
       </c>
       <c r="C279">
-        <v>648.75295160886935</v>
+        <f t="shared" si="3"/>
+        <v>649.08494283199207</v>
       </c>
       <c r="D279">
         <v>572.64221274070621</v>
@@ -7573,7 +7711,7 @@
         <v>189.91483917357664</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
         <v>66</v>
       </c>
@@ -7581,7 +7719,8 @@
         <v>2027</v>
       </c>
       <c r="C280">
-        <v>649.42403920416939</v>
+        <f t="shared" si="3"/>
+        <v>649.84319281021374</v>
       </c>
       <c r="D280">
         <v>576.42403795896314</v>
@@ -7596,7 +7735,7 @@
         <v>195.19860362968041</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
         <v>66</v>
       </c>
@@ -7604,7 +7743,8 @@
         <v>2028</v>
       </c>
       <c r="C281">
-        <v>650.08701492920807</v>
+        <f t="shared" si="3"/>
+        <v>650.60322831470887</v>
       </c>
       <c r="D281">
         <v>579.95418817103791</v>
@@ -7619,7 +7759,7 @@
         <v>200.53430340382889</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
         <v>66</v>
       </c>
@@ -7627,7 +7767,8 @@
         <v>2029</v>
       </c>
       <c r="C282">
-        <v>650.7419592009378</v>
+        <f t="shared" si="3"/>
+        <v>651.36505565962955</v>
       </c>
       <c r="D282">
         <v>583.24637560534666</v>
@@ -7642,7 +7783,7 @@
         <v>205.91731998958792</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
         <v>66</v>
       </c>
@@ -7650,7 +7791,8 @@
         <v>2030</v>
       </c>
       <c r="C283">
-        <v>651.38895210308681</v>
+        <f t="shared" si="3"/>
+        <v>652.12868118898405</v>
       </c>
       <c r="D283">
         <v>586.31400246878366</v>
@@ -7665,7 +7807,7 @@
         <v>211.3428576429701</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
         <v>66</v>
       </c>
@@ -7673,7 +7815,8 @@
         <v>2031</v>
       </c>
       <c r="C284">
-        <v>652.02807337399656</v>
+        <f t="shared" si="3"/>
+        <v>652.89411127671451</v>
       </c>
       <c r="D284">
         <v>589.17009702924804</v>
@@ -7688,7 +7831,7 @@
         <v>216.80595930424445</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
         <v>66</v>
       </c>
@@ -7696,7 +7839,8 @@
         <v>2032</v>
       </c>
       <c r="C285">
-        <v>652.65940239490828</v>
+        <f t="shared" si="3"/>
+        <v>653.66135232696729</v>
       </c>
       <c r="D285">
         <v>591.82726302133688</v>
@@ -7711,7 +7855,7 @@
         <v>222.30152379594844</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
         <v>66</v>
       </c>
@@ -7719,7 +7863,8 @@
         <v>2033</v>
       </c>
       <c r="C286">
-        <v>653.28301817869203</v>
+        <f t="shared" si="3"/>
+        <v>654.43041077418923</v>
       </c>
       <c r="D286">
         <v>594.29764094462587</v>
@@ -7734,7 +7879,7 @@
         <v>227.82432417893807</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
         <v>66</v>
       </c>
@@ -7742,7 +7887,8 @@
         <v>2034</v>
       </c>
       <c r="C287">
-        <v>653.89899935900826</v>
+        <f t="shared" si="3"/>
+        <v>655.20129308335709</v>
       </c>
       <c r="D287">
         <v>596.59287985735136</v>
@@ -7757,7 +7903,7 @@
         <v>233.36902713259178</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
         <v>66</v>
       </c>
@@ -7765,7 +7911,8 @@
         <v>2035</v>
       </c>
       <c r="C288">
-        <v>654.50742417989636</v>
+        <f t="shared" si="3"/>
+        <v>655.97400575017537</v>
       </c>
       <c r="D288">
         <v>598.72411832891737</v>
@@ -7780,7 +7927,7 @@
         <v>238.93021321113551</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
         <v>66</v>
       </c>
@@ -7788,7 +7935,8 @@
         <v>2036</v>
       </c>
       <c r="C289">
-        <v>655.10837048578105</v>
+        <f t="shared" si="3"/>
+        <v>656.74855530119771</v>
       </c>
       <c r="D289">
         <v>600.70197329450184</v>
@@ -7803,7 +7951,7 @@
         <v>244.50239781577662</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
         <v>66</v>
       </c>
@@ -7811,7 +7959,8 @@
         <v>2037</v>
       </c>
       <c r="C290">
-        <v>655.70191571188752</v>
+        <f t="shared" si="3"/>
+        <v>657.52494829404964</v>
       </c>
       <c r="D290">
         <v>602.53653564745412</v>
@@ -7826,7 +7975,7 @@
         <v>250.08005271218332</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
         <v>66</v>
       </c>
@@ -7834,7 +7983,8 @@
         <v>2038</v>
       </c>
       <c r="C291">
-        <v>656.28813687505999</v>
+        <f t="shared" si="3"/>
+        <v>658.30319131762462</v>
       </c>
       <c r="D291">
         <v>604.23737150468901</v>
@@ -7849,7 +7999,7 @@
         <v>255.65762791504474</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="7" t="s">
         <v>66</v>
       </c>
@@ -7857,7 +8007,8 @@
         <v>2039</v>
       </c>
       <c r="C292">
-        <v>656.86711056497484</v>
+        <f t="shared" si="3"/>
+        <v>659.08329099223704</v>
       </c>
       <c r="D292">
         <v>605.81352818253742</v>
@@ -7872,7 +8023,7 @@
         <v>261.22957375615692</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="7" t="s">
         <v>66</v>
       </c>
@@ -7880,7 +8031,8 @@
         <v>2040</v>
       </c>
       <c r="C293">
-        <v>657.43891293573768</v>
+        <f t="shared" si="3"/>
+        <v>659.86525396982677</v>
       </c>
       <c r="D293">
         <v>607.27354402215929</v>
@@ -7895,7 +8047,7 @@
         <v>266.7903629498316</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
         <v>66</v>
       </c>
@@ -7903,7 +8055,8 @@
         <v>2041</v>
       </c>
       <c r="C294">
-        <v>658.00361969786252</v>
+        <f t="shared" si="3"/>
+        <v>660.64908693415919</v>
       </c>
       <c r="D294">
         <v>608.62546130212456</v>
@@ -7918,7 +8071,7 @@
         <v>272.33451246945924</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="7" t="s">
         <v>66</v>
       </c>
@@ -7926,7 +8079,8 @@
         <v>2042</v>
       </c>
       <c r="C295">
-        <v>658.56130611061803</v>
+        <f t="shared" si="3"/>
+        <v>661.43479660101605</v>
       </c>
       <c r="D295">
         <v>609.87684156936018</v>
@@ -7941,7 +8095,7 @@
         <v>277.85660505179072</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="7" t="s">
         <v>66</v>
       </c>
@@ -7949,7 +8103,8 @@
         <v>2043</v>
       </c>
       <c r="C296">
-        <v>659.11204697473886</v>
+        <f t="shared" si="3"/>
+        <v>662.22238971833053</v>
       </c>
       <c r="D296">
         <v>611.03478280711295</v>
@@ -7964,7 +8119,7 @@
         <v>283.35131015086017</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="7" t="s">
         <v>66</v>
       </c>
@@ -7972,7 +8127,8 @@
         <v>2044</v>
       </c>
       <c r="C297">
-        <v>659.65591662549207</v>
+        <f t="shared" si="3"/>
+        <v>663.01187306647114</v>
       </c>
       <c r="D297">
         <v>612.10593793920043</v>
@@ -7987,7 +8143,7 @@
         <v>288.81340417134544</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
         <v>66</v>
       </c>
@@ -7995,7 +8151,8 @@
         <v>2045</v>
       </c>
       <c r="C298">
-        <v>660.19298892608947</v>
+        <f t="shared" si="3"/>
+        <v>663.80325345836798</v>
       </c>
       <c r="D298">
         <v>613.09653424323744</v>
@@ -8010,7 +8167,7 @@
         <v>294.23778982137861</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="7" t="s">
         <v>66</v>
       </c>
@@ -8018,7 +8175,8 @@
         <v>2046</v>
       </c>
       <c r="C299">
-        <v>660.72333726144211</v>
+        <f t="shared" si="3"/>
+        <v>664.59653773974856</v>
       </c>
       <c r="D299">
         <v>614.01239331169359</v>
@@ -8033,7 +8191,7 @@
         <v>299.61951443715452</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="7" t="s">
         <v>66</v>
       </c>
@@ -8041,7 +8199,8 @@
         <v>2047</v>
       </c>
       <c r="C300">
-        <v>661.24703453224424</v>
+        <f t="shared" si="3"/>
+        <v>665.3917327892957</v>
       </c>
       <c r="D300">
         <v>614.85895125870798</v>
@@ -8056,7 +8215,7 @@
         <v>304.95378714588361</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="7" t="s">
         <v>66</v>
       </c>
@@ -8064,7 +8223,8 @@
         <v>2048</v>
       </c>
       <c r="C301">
-        <v>661.76415314938447</v>
+        <f t="shared" si="3"/>
+        <v>666.18884551886845</v>
       </c>
       <c r="D301">
         <v>615.64127892285387</v>
@@ -8079,7 +8239,7 @@
         <v>310.23599474939743</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
         <v>66</v>
       </c>
@@ -8087,7 +8247,8 @@
         <v>2049</v>
       </c>
       <c r="C302">
-        <v>662.27476502867296</v>
+        <f t="shared" si="3"/>
+        <v>666.98788287374884</v>
       </c>
       <c r="D302">
         <v>616.36410186193962</v>
@@ -8102,7 +8263,7 @@
         <v>315.46171622771777</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="7" t="s">
         <v>66</v>
       </c>
@@ -8110,7 +8271,8 @@
         <v>2050</v>
       </c>
       <c r="C303">
-        <v>662.77894158587799</v>
+        <f t="shared" si="3"/>
+        <v>667.78885183273439</v>
       </c>
       <c r="D303">
         <v>617.03181997589297</v>
@@ -8125,7 +8287,7 @@
         <v>320.62673577981411</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
         <v>70</v>
       </c>
@@ -8148,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="7" t="s">
         <v>70</v>
       </c>
@@ -8156,6 +8318,7 @@
         <v>1901</v>
       </c>
       <c r="C305">
+        <f>C304+(C$52-C$2)/50</f>
         <v>4.2941279388593872</v>
       </c>
       <c r="D305">
@@ -8171,7 +8334,7 @@
         <v>8.4381762259472845E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
         <v>70</v>
       </c>
@@ -8179,6 +8342,7 @@
         <v>1902</v>
       </c>
       <c r="C306">
+        <f t="shared" ref="C306:C353" si="4">C305+(C$52-C$2)/50</f>
         <v>8.5882558777187743</v>
       </c>
       <c r="D306">
@@ -8194,7 +8358,7 @@
         <v>0.16876352451894569</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
         <v>70</v>
       </c>
@@ -8202,6 +8366,7 @@
         <v>1903</v>
       </c>
       <c r="C307">
+        <f t="shared" si="4"/>
         <v>12.882383816578162</v>
       </c>
       <c r="D307">
@@ -8217,7 +8382,7 @@
         <v>0.25314528677841852</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
         <v>70</v>
       </c>
@@ -8225,6 +8390,7 @@
         <v>1904</v>
       </c>
       <c r="C308">
+        <f t="shared" si="4"/>
         <v>17.176511755437549</v>
       </c>
       <c r="D308">
@@ -8240,7 +8406,7 @@
         <v>0.33752704903789138</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="7" t="s">
         <v>70</v>
       </c>
@@ -8248,6 +8414,7 @@
         <v>1905</v>
       </c>
       <c r="C309">
+        <f t="shared" si="4"/>
         <v>21.470639694296935</v>
       </c>
       <c r="D309">
@@ -8263,7 +8430,7 @@
         <v>0.42190881129736424</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
         <v>70</v>
       </c>
@@ -8271,6 +8438,7 @@
         <v>1906</v>
       </c>
       <c r="C310">
+        <f t="shared" si="4"/>
         <v>25.764767633156321</v>
       </c>
       <c r="D310">
@@ -8286,7 +8454,7 @@
         <v>0.50629057355683704</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
         <v>70</v>
       </c>
@@ -8294,6 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="C311">
+        <f t="shared" si="4"/>
         <v>30.058895572015707</v>
       </c>
       <c r="D311">
@@ -8309,7 +8478,7 @@
         <v>0.59067233581630985</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
         <v>70</v>
       </c>
@@ -8317,6 +8486,7 @@
         <v>1908</v>
       </c>
       <c r="C312">
+        <f t="shared" si="4"/>
         <v>34.353023510875097</v>
       </c>
       <c r="D312">
@@ -8332,7 +8502,7 @@
         <v>0.67505409807578265</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
         <v>70</v>
       </c>
@@ -8340,6 +8510,7 @@
         <v>1909</v>
       </c>
       <c r="C313">
+        <f t="shared" si="4"/>
         <v>38.647151449734487</v>
       </c>
       <c r="D313">
@@ -8355,7 +8526,7 @@
         <v>0.75943586033525545</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="7" t="s">
         <v>70</v>
       </c>
@@ -8363,6 +8534,7 @@
         <v>1910</v>
       </c>
       <c r="C314">
+        <f t="shared" si="4"/>
         <v>42.941279388593877</v>
       </c>
       <c r="D314">
@@ -8378,7 +8550,7 @@
         <v>0.84381762259472826</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
         <v>70</v>
       </c>
@@ -8386,6 +8558,7 @@
         <v>1911</v>
       </c>
       <c r="C315">
+        <f t="shared" si="4"/>
         <v>47.235407327453267</v>
       </c>
       <c r="D315">
@@ -8401,7 +8574,7 @@
         <v>0.92819938485420106</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
         <v>70</v>
       </c>
@@ -8409,6 +8582,7 @@
         <v>1912</v>
       </c>
       <c r="C316">
+        <f t="shared" si="4"/>
         <v>51.529535266312656</v>
       </c>
       <c r="D316">
@@ -8424,7 +8598,7 @@
         <v>1.0125811471136739</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="7" t="s">
         <v>70</v>
       </c>
@@ -8432,6 +8606,7 @@
         <v>1913</v>
       </c>
       <c r="C317">
+        <f t="shared" si="4"/>
         <v>55.823663205172046</v>
       </c>
       <c r="D317">
@@ -8447,7 +8622,7 @@
         <v>1.0969629093731468</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
         <v>70</v>
       </c>
@@ -8455,6 +8630,7 @@
         <v>1914</v>
       </c>
       <c r="C318">
+        <f t="shared" si="4"/>
         <v>60.117791144031436</v>
       </c>
       <c r="D318">
@@ -8470,7 +8646,7 @@
         <v>1.1813446716326197</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
         <v>70</v>
       </c>
@@ -8478,6 +8654,7 @@
         <v>1915</v>
       </c>
       <c r="C319">
+        <f t="shared" si="4"/>
         <v>64.411919082890819</v>
       </c>
       <c r="D319">
@@ -8493,7 +8670,7 @@
         <v>1.2657264338920926</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
         <v>70</v>
       </c>
@@ -8501,6 +8678,7 @@
         <v>1916</v>
       </c>
       <c r="C320">
+        <f t="shared" si="4"/>
         <v>68.706047021750209</v>
       </c>
       <c r="D320">
@@ -8516,7 +8694,7 @@
         <v>1.3501081961515655</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="7" t="s">
         <v>70</v>
       </c>
@@ -8524,6 +8702,7 @@
         <v>1917</v>
       </c>
       <c r="C321">
+        <f t="shared" si="4"/>
         <v>73.000174960609598</v>
       </c>
       <c r="D321">
@@ -8539,7 +8718,7 @@
         <v>1.4344899584110384</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="7" t="s">
         <v>70</v>
       </c>
@@ -8547,6 +8726,7 @@
         <v>1918</v>
       </c>
       <c r="C322">
+        <f t="shared" si="4"/>
         <v>77.294302899468988</v>
       </c>
       <c r="D322">
@@ -8562,7 +8742,7 @@
         <v>1.5188717206705113</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
         <v>70</v>
       </c>
@@ -8570,6 +8750,7 @@
         <v>1919</v>
       </c>
       <c r="C323">
+        <f t="shared" si="4"/>
         <v>81.588430838328378</v>
       </c>
       <c r="D323">
@@ -8585,7 +8766,7 @@
         <v>1.6032534829299843</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="7" t="s">
         <v>70</v>
       </c>
@@ -8593,6 +8774,7 @@
         <v>1920</v>
       </c>
       <c r="C324">
+        <f t="shared" si="4"/>
         <v>85.882558777187768</v>
       </c>
       <c r="D324">
@@ -8608,7 +8790,7 @@
         <v>1.6876352451894572</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="7" t="s">
         <v>70</v>
       </c>
@@ -8616,6 +8798,7 @@
         <v>1921</v>
       </c>
       <c r="C325">
+        <f t="shared" si="4"/>
         <v>90.176686716047158</v>
       </c>
       <c r="D325">
@@ -8631,7 +8814,7 @@
         <v>1.7720170074489301</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="7" t="s">
         <v>70</v>
       </c>
@@ -8639,6 +8822,7 @@
         <v>1922</v>
       </c>
       <c r="C326">
+        <f t="shared" si="4"/>
         <v>94.470814654906548</v>
       </c>
       <c r="D326">
@@ -8654,7 +8838,7 @@
         <v>1.856398769708403</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="7" t="s">
         <v>70</v>
       </c>
@@ -8662,6 +8846,7 @@
         <v>1923</v>
       </c>
       <c r="C327">
+        <f t="shared" si="4"/>
         <v>98.764942593765937</v>
       </c>
       <c r="D327">
@@ -8677,7 +8862,7 @@
         <v>1.9407805319678759</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="7" t="s">
         <v>70</v>
       </c>
@@ -8685,6 +8870,7 @@
         <v>1924</v>
       </c>
       <c r="C328">
+        <f t="shared" si="4"/>
         <v>103.05907053262533</v>
       </c>
       <c r="D328">
@@ -8700,7 +8886,7 @@
         <v>2.0251622942273486</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="7" t="s">
         <v>70</v>
       </c>
@@ -8708,6 +8894,7 @@
         <v>1925</v>
       </c>
       <c r="C329">
+        <f t="shared" si="4"/>
         <v>107.35319847148472</v>
       </c>
       <c r="D329">
@@ -8723,7 +8910,7 @@
         <v>2.1095440564868215</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="7" t="s">
         <v>70</v>
       </c>
@@ -8731,6 +8918,7 @@
         <v>1926</v>
       </c>
       <c r="C330">
+        <f t="shared" si="4"/>
         <v>111.64732641034411</v>
       </c>
       <c r="D330">
@@ -8746,7 +8934,7 @@
         <v>2.1939258187462944</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="7" t="s">
         <v>70</v>
       </c>
@@ -8754,6 +8942,7 @@
         <v>1927</v>
       </c>
       <c r="C331">
+        <f t="shared" si="4"/>
         <v>115.9414543492035</v>
       </c>
       <c r="D331">
@@ -8769,7 +8958,7 @@
         <v>2.2783075810057674</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="7" t="s">
         <v>70</v>
       </c>
@@ -8777,6 +8966,7 @@
         <v>1928</v>
       </c>
       <c r="C332">
+        <f t="shared" si="4"/>
         <v>120.23558228806289</v>
       </c>
       <c r="D332">
@@ -8792,7 +8982,7 @@
         <v>2.3626893432652403</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="7" t="s">
         <v>70</v>
       </c>
@@ -8800,6 +8990,7 @@
         <v>1929</v>
       </c>
       <c r="C333">
+        <f t="shared" si="4"/>
         <v>124.52971022692228</v>
       </c>
       <c r="D333">
@@ -8815,7 +9006,7 @@
         <v>2.4470711055247132</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="7" t="s">
         <v>70</v>
       </c>
@@ -8823,6 +9014,7 @@
         <v>1930</v>
       </c>
       <c r="C334">
+        <f t="shared" si="4"/>
         <v>128.82383816578167</v>
       </c>
       <c r="D334">
@@ -8838,7 +9030,7 @@
         <v>2.5314528677841861</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
         <v>70</v>
       </c>
@@ -8846,6 +9038,7 @@
         <v>1931</v>
       </c>
       <c r="C335">
+        <f t="shared" si="4"/>
         <v>133.11796610464106</v>
       </c>
       <c r="D335">
@@ -8861,7 +9054,7 @@
         <v>2.615834630043659</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
         <v>70</v>
       </c>
@@ -8869,6 +9062,7 @@
         <v>1932</v>
       </c>
       <c r="C336">
+        <f t="shared" si="4"/>
         <v>137.41209404350045</v>
       </c>
       <c r="D336">
@@ -8884,7 +9078,7 @@
         <v>2.7002163923031319</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
         <v>70</v>
       </c>
@@ -8892,6 +9086,7 @@
         <v>1933</v>
       </c>
       <c r="C337">
+        <f t="shared" si="4"/>
         <v>141.70622198235984</v>
       </c>
       <c r="D337">
@@ -8907,7 +9102,7 @@
         <v>2.7845981545626048</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
         <v>70</v>
       </c>
@@ -8915,6 +9110,7 @@
         <v>1934</v>
       </c>
       <c r="C338">
+        <f t="shared" si="4"/>
         <v>146.00034992121923</v>
       </c>
       <c r="D338">
@@ -8930,7 +9126,7 @@
         <v>2.8689799168220778</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
         <v>70</v>
       </c>
@@ -8938,6 +9134,7 @@
         <v>1935</v>
       </c>
       <c r="C339">
+        <f t="shared" si="4"/>
         <v>150.29447786007862</v>
       </c>
       <c r="D339">
@@ -8953,7 +9150,7 @@
         <v>2.9533616790815507</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
         <v>70</v>
       </c>
@@ -8961,6 +9158,7 @@
         <v>1936</v>
       </c>
       <c r="C340">
+        <f t="shared" si="4"/>
         <v>154.588605798938</v>
       </c>
       <c r="D340">
@@ -8976,7 +9174,7 @@
         <v>3.0377434413410236</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
         <v>70</v>
       </c>
@@ -8984,6 +9182,7 @@
         <v>1937</v>
       </c>
       <c r="C341">
+        <f t="shared" si="4"/>
         <v>158.88273373779739</v>
       </c>
       <c r="D341">
@@ -8999,7 +9198,7 @@
         <v>3.1221252036004965</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
         <v>70</v>
       </c>
@@ -9007,6 +9206,7 @@
         <v>1938</v>
       </c>
       <c r="C342">
+        <f t="shared" si="4"/>
         <v>163.17686167665678</v>
       </c>
       <c r="D342">
@@ -9022,7 +9222,7 @@
         <v>3.2065069658599694</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
         <v>70</v>
       </c>
@@ -9030,6 +9230,7 @@
         <v>1939</v>
       </c>
       <c r="C343">
+        <f t="shared" si="4"/>
         <v>167.47098961551617</v>
       </c>
       <c r="D343">
@@ -9045,7 +9246,7 @@
         <v>3.2908887281194423</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
         <v>70</v>
       </c>
@@ -9053,6 +9254,7 @@
         <v>1940</v>
       </c>
       <c r="C344">
+        <f t="shared" si="4"/>
         <v>171.76511755437556</v>
       </c>
       <c r="D344">
@@ -9068,7 +9270,7 @@
         <v>3.3752704903789152</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
         <v>70</v>
       </c>
@@ -9076,6 +9278,7 @@
         <v>1941</v>
       </c>
       <c r="C345">
+        <f t="shared" si="4"/>
         <v>176.05924549323495</v>
       </c>
       <c r="D345">
@@ -9091,7 +9294,7 @@
         <v>3.4596522526383882</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
         <v>70</v>
       </c>
@@ -9099,6 +9302,7 @@
         <v>1942</v>
       </c>
       <c r="C346">
+        <f t="shared" si="4"/>
         <v>180.35337343209434</v>
       </c>
       <c r="D346">
@@ -9114,7 +9318,7 @@
         <v>3.5440340148978611</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
         <v>70</v>
       </c>
@@ -9122,6 +9326,7 @@
         <v>1943</v>
       </c>
       <c r="C347">
+        <f t="shared" si="4"/>
         <v>184.64750137095373</v>
       </c>
       <c r="D347">
@@ -9137,7 +9342,7 @@
         <v>3.628415777157334</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
         <v>70</v>
       </c>
@@ -9145,6 +9350,7 @@
         <v>1944</v>
       </c>
       <c r="C348">
+        <f t="shared" si="4"/>
         <v>188.94162930981312</v>
       </c>
       <c r="D348">
@@ -9160,7 +9366,7 @@
         <v>3.7127975394168069</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
         <v>70</v>
       </c>
@@ -9168,6 +9374,7 @@
         <v>1945</v>
       </c>
       <c r="C349">
+        <f t="shared" si="4"/>
         <v>193.23575724867251</v>
       </c>
       <c r="D349">
@@ -9183,7 +9390,7 @@
         <v>3.7971793016762798</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="7" t="s">
         <v>70</v>
       </c>
@@ -9191,6 +9398,7 @@
         <v>1946</v>
       </c>
       <c r="C350">
+        <f t="shared" si="4"/>
         <v>197.5298851875319</v>
       </c>
       <c r="D350">
@@ -9206,7 +9414,7 @@
         <v>3.8815610639357527</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
         <v>70</v>
       </c>
@@ -9214,6 +9422,7 @@
         <v>1947</v>
       </c>
       <c r="C351">
+        <f t="shared" si="4"/>
         <v>201.82401312639129</v>
       </c>
       <c r="D351">
@@ -9229,7 +9438,7 @@
         <v>3.9659428261952256</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
         <v>70</v>
       </c>
@@ -9237,6 +9446,7 @@
         <v>1948</v>
       </c>
       <c r="C352">
+        <f t="shared" si="4"/>
         <v>206.11814106525068</v>
       </c>
       <c r="D352">
@@ -9252,7 +9462,7 @@
         <v>4.0503245884546981</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
         <v>70</v>
       </c>
@@ -9260,6 +9470,7 @@
         <v>1949</v>
       </c>
       <c r="C353">
+        <f t="shared" si="4"/>
         <v>210.41226900411007</v>
       </c>
       <c r="D353">
@@ -9275,7 +9486,7 @@
         <v>4.134706350714171</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
         <v>70</v>
       </c>
@@ -9298,7 +9509,7 @@
         <v>4.2190881129736422</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
         <v>70</v>
       </c>
@@ -9321,7 +9532,7 @@
         <v>4.4871259779449968</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
         <v>70</v>
       </c>
@@ -9344,7 +9555,7 @@
         <v>4.7719175135444134</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
         <v>70</v>
       </c>
@@ -9367,7 +9578,7 @@
         <v>5.0744739800179532</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
         <v>70</v>
       </c>
@@ -9390,7 +9601,7 @@
         <v>5.395862988627468</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
         <v>70</v>
       </c>
@@ -9413,7 +9624,7 @@
         <v>5.7372110252666717</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
         <v>70</v>
       </c>
@@ -9436,7 +9647,7 @@
         <v>6.0997060027976264</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
         <v>70</v>
       </c>
@@ -9459,7 +9670,7 @@
         <v>6.4845998287942965</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="7" t="s">
         <v>70</v>
       </c>
@@ -9482,7 +9693,7 @@
         <v>6.893210973007684</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
         <v>70</v>
       </c>
@@ -9505,7 +9716,7 @@
         <v>7.3269270162321627</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
         <v>70</v>
       </c>
@@ -9528,7 +9739,7 @@
         <v>7.7872071593390562</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
         <v>70</v>
       </c>
@@ -9551,7 +9762,7 @@
         <v>8.2755846680369984</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="7" t="s">
         <v>70</v>
       </c>
@@ -9574,7 +9785,7 @@
         <v>8.7936692254068962</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="7" t="s">
         <v>70</v>
       </c>
@@ -9597,7 +9808,7 @@
         <v>9.3431491604335388</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="7" t="s">
         <v>70</v>
       </c>
@@ -9620,7 +9831,7 @@
         <v>9.9257935166112397</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="7" t="s">
         <v>70</v>
       </c>
@@ -9643,7 +9854,7 @@
         <v>10.54345392023798</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
         <v>70</v>
       </c>
@@ -9666,7 +9877,7 @@
         <v>11.198066203238838</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="7" t="s">
         <v>70</v>
       </c>
@@ -9689,7 +9900,7 @@
         <v>11.891651730291006</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="7" t="s">
         <v>70</v>
       </c>
@@ -9712,7 +9923,7 @@
         <v>12.626318374685651</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="7" t="s">
         <v>70</v>
       </c>
@@ -9735,7 +9946,7 @@
         <v>13.404261081795061</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="7" t="s">
         <v>70</v>
       </c>
@@ -9758,7 +9969,7 @@
         <v>14.227761953270035</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="7" t="s">
         <v>70</v>
       </c>
@@ -9781,7 +9992,7 @@
         <v>15.099189779243064</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="7" t="s">
         <v>70</v>
       </c>
@@ -9804,7 +10015,7 @@
         <v>16.020998939947269</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="7" t="s">
         <v>70</v>
       </c>
@@ -9827,7 +10038,7 @@
         <v>16.99572759239215</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="7" t="s">
         <v>70</v>
       </c>
@@ -9850,7 +10061,7 @@
         <v>18.02599505220229</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="7" t="s">
         <v>70</v>
       </c>
@@ -9873,7 +10084,7 @@
         <v>19.1144982755896</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="7" t="s">
         <v>70</v>
       </c>
@@ -9896,7 +10107,7 @@
         <v>20.264007341888732</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="7" t="s">
         <v>70</v>
       </c>
@@ -9919,7 +10130,7 @@
         <v>21.477359833365743</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="7" t="s">
         <v>70</v>
       </c>
@@ -9942,7 +10153,7 @@
         <v>22.757454006373067</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="7" t="s">
         <v>70</v>
       </c>
@@ -9965,7 +10176,7 @@
         <v>24.107240646662124</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="7" t="s">
         <v>70</v>
       </c>
@@ -9988,7 +10199,7 @@
         <v>25.529713502106073</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
         <v>70</v>
       </c>
@@ -10011,7 +10222,7 @@
         <v>27.027898188585549</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
         <v>70</v>
       </c>
@@ -10034,7 +10245,7 @@
         <v>28.604839469732848</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
         <v>70</v>
       </c>
@@ -10057,7 +10268,7 @@
         <v>30.263586819016957</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
         <v>70</v>
       </c>
@@ -10080,7 +10291,7 @@
         <v>32.007178183695359</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
         <v>70</v>
       </c>
@@ -10103,7 +10314,7 @@
         <v>33.838621884867969</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
         <v>70</v>
       </c>
@@ -10126,7 +10337,7 @@
         <v>35.760876606635264</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
         <v>70</v>
       </c>
@@ -10149,7 +10360,7 @@
         <v>37.776829450539694</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
         <v>70</v>
       </c>
@@ -10172,7 +10383,7 @@
         <v>39.889272059348777</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="7" t="s">
         <v>70</v>
       </c>
@@ -10195,7 +10406,7 @@
         <v>42.100874847024961</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
         <v>70</v>
       </c>
@@ -10218,7 +10429,7 @@
         <v>44.414159409506837</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
         <v>70</v>
       </c>
@@ -10241,7 +10452,7 @@
         <v>46.831469233637222</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="7" t="s">
         <v>70</v>
       </c>
@@ -10264,7 +10475,7 @@
         <v>49.354938868968944</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="7" t="s">
         <v>70</v>
       </c>
@@ -10287,7 +10498,7 @@
         <v>51.986461778797974</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="7" t="s">
         <v>70</v>
       </c>
@@ -10310,7 +10521,7 @@
         <v>54.727657141906903</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="7" t="s">
         <v>70</v>
       </c>
@@ -10333,7 +10544,7 @@
         <v>57.579835934171044</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="7" t="s">
         <v>70</v>
       </c>
@@ -10356,7 +10567,7 @@
         <v>60.543966678113655</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="7" t="s">
         <v>70</v>
       </c>
@@ -10379,7 +10590,7 @@
         <v>63.620641307131599</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="7" t="s">
         <v>70</v>
       </c>
@@ -10402,7 +10613,7 @@
         <v>66.810041647592655</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="7" t="s">
         <v>70</v>
       </c>
@@ -10425,7 +10636,7 @@
         <v>70.111907074212084</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="7" t="s">
         <v>70</v>
       </c>
@@ -10448,7 +10659,7 @@
         <v>73.525503939711513</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="7" t="s">
         <v>70</v>
       </c>
@@ -10471,7 +10682,7 @@
         <v>77.049597416255651</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="7" t="s">
         <v>70</v>
       </c>
@@ -10494,7 +10705,7 @@
         <v>80.682426410998545</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="7" t="s">
         <v>70</v>
       </c>
@@ -10517,7 +10728,7 @@
         <v>84.421682228743151</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="7" t="s">
         <v>70</v>
       </c>
@@ -10540,7 +10751,7 @@
         <v>88.264491648896623</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="7" t="s">
         <v>70</v>
       </c>
@@ -10563,7 +10774,7 @@
         <v>92.207405059579159</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="7" t="s">
         <v>70</v>
       </c>
@@ -10586,7 +10797,7 @@
         <v>96.246390247382109</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="7" t="s">
         <v>70</v>
       </c>
@@ -10609,7 +10820,7 @@
         <v>100.3768323759558</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="7" t="s">
         <v>70</v>
       </c>
@@ -10632,7 +10843,7 @@
         <v>104.59354060018373</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="7" t="s">
         <v>70</v>
       </c>
@@ -10655,7 +10866,7 @@
         <v>108.89076165588504</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="7" t="s">
         <v>70</v>
       </c>
@@ -10678,7 +10889,7 @@
         <v>113.26220063944363</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="7" t="s">
         <v>70</v>
       </c>
@@ -10701,7 +10912,7 @@
         <v>117.70104905013251</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="7" t="s">
         <v>70</v>
       </c>
@@ -10724,7 +10935,7 @@
         <v>122.20002001377908</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
         <v>70</v>
       </c>
@@ -10747,7 +10958,7 @@
         <v>126.75139044425649</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="7" t="s">
         <v>70</v>
       </c>
@@ -10770,7 +10981,7 @@
         <v>131.34704973426057</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="7" t="s">
         <v>70</v>
       </c>
@@ -10793,7 +11004,7 @@
         <v>135.97855440461586</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="7" t="s">
         <v>70</v>
       </c>
@@ -10816,7 +11027,7 @@
         <v>140.63718798787315</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="7" t="s">
         <v>70</v>
       </c>
@@ -10839,7 +11050,7 @@
         <v>145.31402528309533</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="7" t="s">
         <v>70</v>
       </c>
@@ -10862,7 +11073,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="7" t="s">
         <v>70</v>
       </c>
@@ -10870,7 +11081,8 @@
         <v>2019</v>
       </c>
       <c r="C423">
-        <v>643.82138712131405</v>
+        <f>C$155/(1+(C$155/C$120-1)*EXP(-C$155*(C$120-C$119)*($B423-$B$120)/(C$120*(C$155-C$120))))</f>
+        <v>643.82666350851207</v>
       </c>
       <c r="D423">
         <v>537.99603173991193</v>
@@ -10885,7 +11097,7 @@
         <v>154.73918728549114</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="7" t="s">
         <v>70</v>
       </c>
@@ -10893,7 +11105,8 @@
         <v>2020</v>
       </c>
       <c r="C424">
-        <v>644.55153470487596</v>
+        <f t="shared" ref="C424:C454" si="5">C$155/(1+(C$155/C$120-1)*EXP(-C$155*(C$120-C$119)*($B424-$B$120)/(C$120*(C$155-C$120))))</f>
+        <v>644.57258913236581</v>
       </c>
       <c r="D424">
         <v>544.06258378057169</v>
@@ -10908,7 +11121,7 @@
         <v>159.5846616975841</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="7" t="s">
         <v>70</v>
       </c>
@@ -10916,7 +11129,8 @@
         <v>2021</v>
       </c>
       <c r="C425">
-        <v>645.27299928890579</v>
+        <f t="shared" si="5"/>
+        <v>645.32025690334171</v>
       </c>
       <c r="D425">
         <v>549.86170934309098</v>
@@ -10931,7 +11145,7 @@
         <v>164.53608077672851</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="7" t="s">
         <v>70</v>
       </c>
@@ -10939,7 +11153,8 @@
         <v>2022</v>
       </c>
       <c r="C426">
-        <v>645.98586324297241</v>
+        <f t="shared" si="5"/>
+        <v>646.06967293177638</v>
       </c>
       <c r="D426">
         <v>555.39858281259467</v>
@@ -10954,7 +11169,7 @@
         <v>169.59291585858088</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="7" t="s">
         <v>70</v>
       </c>
@@ -10962,7 +11177,8 @@
         <v>2023</v>
       </c>
       <c r="C427">
-        <v>646.69020870179975</v>
+        <f t="shared" si="5"/>
+        <v>646.82084335662046</v>
       </c>
       <c r="D427">
         <v>560.67904117383068</v>
@@ -10977,7 +11193,7 @@
         <v>174.75444541672056</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="7" t="s">
         <v>70</v>
       </c>
@@ -10985,7 +11201,8 @@
         <v>2024</v>
       </c>
       <c r="C428">
-        <v>647.38611754974022</v>
+        <f t="shared" si="5"/>
+        <v>647.57377434563307</v>
       </c>
       <c r="D428">
         <v>565.70948723314507</v>
@@ -11000,7 +11217,7 @@
         <v>180.01974889302105</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="7" t="s">
         <v>70</v>
       </c>
@@ -11008,7 +11225,8 @@
         <v>2025</v>
       </c>
       <c r="C429">
-        <v>648.07367140575138</v>
+        <f t="shared" si="5"/>
+        <v>648.32847209549664</v>
       </c>
       <c r="D429">
         <v>570.49679738265183</v>
@@ -11023,7 +11241,7 @@
         <v>185.38770108214936</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="7" t="s">
         <v>70</v>
       </c>
@@ -11031,7 +11249,8 @@
         <v>2026</v>
       </c>
       <c r="C430">
-        <v>648.75295160886935</v>
+        <f t="shared" si="5"/>
+        <v>649.08494283199207</v>
       </c>
       <c r="D430">
         <v>575.04823459623094</v>
@@ -11046,7 +11265,7 @@
         <v>190.85696713659291</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="7" t="s">
         <v>70</v>
       </c>
@@ -11054,7 +11273,8 @@
         <v>2027</v>
       </c>
       <c r="C431">
-        <v>649.42403920416939</v>
+        <f t="shared" si="5"/>
+        <v>649.84319281021374</v>
       </c>
       <c r="D431">
         <v>579.37136716028147</v>
@@ -11069,7 +11289,7 @@
         <v>196.42599825783185</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="7" t="s">
         <v>70</v>
       </c>
@@ -11077,7 +11297,8 @@
         <v>2028</v>
       </c>
       <c r="C432">
-        <v>650.08701492920807</v>
+        <f t="shared" si="5"/>
+        <v>650.60322831470887</v>
       </c>
       <c r="D432">
         <v>583.47399347317685</v>
@@ -11092,7 +11313,7 @@
         <v>202.09302813773664</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="7" t="s">
         <v>70</v>
       </c>
@@ -11100,7 +11321,8 @@
         <v>2029</v>
       </c>
       <c r="C433">
-        <v>650.7419592009378</v>
+        <f t="shared" si="5"/>
+        <v>651.36505565962955</v>
       </c>
       <c r="D433">
         <v>587.3640730976507</v>
@@ -11115,7 +11337,7 @@
         <v>207.85607021193869</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="7" t="s">
         <v>70</v>
       </c>
@@ -11123,7 +11345,8 @@
         <v>2030</v>
       </c>
       <c r="C434">
-        <v>651.38895210308681</v>
+        <f t="shared" si="5"/>
+        <v>652.12868118898405</v>
       </c>
       <c r="D434">
         <v>591.04966412051817</v>
@@ -11138,7 +11361,7 @@
         <v>213.71291578376236</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="7" t="s">
         <v>70</v>
       </c>
@@ -11146,7 +11369,8 @@
         <v>2031</v>
       </c>
       <c r="C435">
-        <v>652.02807337399656</v>
+        <f t="shared" si="5"/>
+        <v>652.89411127671451</v>
       </c>
       <c r="D435">
         <v>594.53886676408274</v>
@@ -11161,7 +11385,7 @@
         <v>219.66113307330767</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="7" t="s">
         <v>70</v>
       </c>
@@ -11169,7 +11393,8 @@
         <v>2032</v>
       </c>
       <c r="C436">
-        <v>652.65940239490828</v>
+        <f t="shared" si="5"/>
+        <v>653.66135232696729</v>
       </c>
       <c r="D436">
         <v>597.83977310256728</v>
@@ -11184,7 +11409,7 @@
         <v>225.69806724141876</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="7" t="s">
         <v>70</v>
       </c>
@@ -11192,7 +11417,8 @@
         <v>2033</v>
       </c>
       <c r="C437">
-        <v>653.28301817869203</v>
+        <f t="shared" si="5"/>
+        <v>654.43041077418923</v>
       </c>
       <c r="D437">
         <v>600.96042266380118</v>
@@ -11207,7 +11433,7 @@
         <v>231.82084143258365</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="7" t="s">
         <v>70</v>
       </c>
@@ -11215,7 +11441,8 @@
         <v>2034</v>
       </c>
       <c r="C438">
-        <v>653.89899935900826</v>
+        <f t="shared" si="5"/>
+        <v>655.20129308335709</v>
       </c>
       <c r="D438">
         <v>603.90876363970972</v>
@@ -11230,7 +11457,7 @@
         <v>238.02635887429662</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="7" t="s">
         <v>70</v>
       </c>
@@ -11238,7 +11465,8 @@
         <v>2035</v>
       </c>
       <c r="C439">
-        <v>654.50742417989636</v>
+        <f t="shared" si="5"/>
+        <v>655.97400575017537</v>
       </c>
       <c r="D439">
         <v>606.69261938724958</v>
@@ -11253,7 +11481,7 @@
         <v>244.31130606312237</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="7" t="s">
         <v>70</v>
       </c>
@@ -11261,7 +11489,8 @@
         <v>2036</v>
       </c>
       <c r="C440">
-        <v>655.10837048578105</v>
+        <f t="shared" si="5"/>
+        <v>656.74855530119771</v>
       </c>
       <c r="D440">
         <v>609.31965987256115</v>
@@ -11276,7 +11505,7 @@
         <v>250.67215705968124</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="7" t="s">
         <v>70</v>
       </c>
@@ -11284,7 +11513,8 @@
         <v>2037</v>
       </c>
       <c r="C441">
-        <v>655.70191571188752</v>
+        <f t="shared" si="5"/>
+        <v>657.52494829404964</v>
       </c>
       <c r="D441">
         <v>611.79737769350311</v>
@@ -11299,7 +11529,7 @@
         <v>257.10517890609754</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="7" t="s">
         <v>70</v>
       </c>
@@ -11307,7 +11537,8 @@
         <v>2038</v>
       </c>
       <c r="C442">
-        <v>656.28813687505999</v>
+        <f t="shared" si="5"/>
+        <v>658.30319131762462</v>
       </c>
       <c r="D442">
         <v>614.13306830770159</v>
@@ -11322,7 +11553,7 @@
         <v>263.60643817020457</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="7" t="s">
         <v>70</v>
       </c>
@@ -11330,7 +11561,8 @@
         <v>2039</v>
       </c>
       <c r="C443">
-        <v>656.86711056497484</v>
+        <f t="shared" si="5"/>
+        <v>659.08329099223704</v>
       </c>
       <c r="D443">
         <v>616.33381409313699</v>
@@ -11345,7 +11577,7 @@
         <v>270.17180861108153</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="7" t="s">
         <v>70</v>
       </c>
@@ -11353,7 +11585,8 @@
         <v>2040</v>
       </c>
       <c r="C444">
-        <v>657.43891293573768</v>
+        <f t="shared" si="5"/>
+        <v>659.86525396982677</v>
       </c>
       <c r="D444">
         <v>618.40647187464765</v>
@@ -11368,7 +11601,7 @@
         <v>276.79697995042022</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="7" t="s">
         <v>70</v>
       </c>
@@ -11376,7 +11609,8 @@
         <v>2041</v>
       </c>
       <c r="C445">
-        <v>658.00361969786252</v>
+        <f t="shared" si="5"/>
+        <v>660.64908693415919</v>
       </c>
       <c r="D445">
         <v>620.35766356115687</v>
@@ -11391,7 +11625,7 @@
         <v>283.47746772391764</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="7" t="s">
         <v>70</v>
       </c>
@@ -11399,7 +11633,8 @@
         <v>2042</v>
       </c>
       <c r="C446">
-        <v>658.56130611061803</v>
+        <f t="shared" si="5"/>
+        <v>661.43479660101605</v>
       </c>
       <c r="D446">
         <v>622.19376955375697</v>
@@ -11414,7 +11649,7 @@
         <v>290.20862417648709</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="7" t="s">
         <v>70</v>
       </c>
@@ -11422,7 +11657,8 @@
         <v>2043</v>
       </c>
       <c r="C447">
-        <v>659.11204697473886</v>
+        <f t="shared" si="5"/>
+        <v>662.22238971833053</v>
       </c>
       <c r="D447">
         <v>623.92092460294418</v>
@@ -11437,7 +11673,7 @@
         <v>296.98565015473952</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="7" t="s">
         <v>70</v>
       </c>
@@ -11445,7 +11681,8 @@
         <v>2044</v>
       </c>
       <c r="C448">
-        <v>659.65591662549207</v>
+        <f t="shared" si="5"/>
+        <v>663.01187306647114</v>
       </c>
       <c r="D448">
         <v>625.5450158133948</v>
@@ -11460,7 +11697,7 @@
         <v>303.80360794003815</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="7" t="s">
         <v>70</v>
       </c>
@@ -11468,7 +11705,8 @@
         <v>2045</v>
       </c>
       <c r="C449">
-        <v>660.19298892608947</v>
+        <f t="shared" si="5"/>
+        <v>663.80325345836798</v>
       </c>
       <c r="D449">
         <v>627.07168251594703</v>
@@ -11483,7 +11721,7 @@
         <v>310.6574349556401</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="7" t="s">
         <v>70</v>
       </c>
@@ -11491,7 +11729,8 @@
         <v>2046</v>
       </c>
       <c r="C450">
-        <v>660.72333726144211</v>
+        <f t="shared" si="5"/>
+        <v>664.59653773974856</v>
       </c>
       <c r="D450">
         <v>628.50631774827866</v>
@@ -11506,7 +11745,7 @@
         <v>317.5419582721554</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="7" t="s">
         <v>70</v>
       </c>
@@ -11514,7 +11753,8 @@
         <v>2047</v>
       </c>
       <c r="C451">
-        <v>661.24703453224424</v>
+        <f t="shared" si="5"/>
+        <v>665.3917327892957</v>
       </c>
       <c r="D451">
         <v>629.85407110763322</v>
@@ -11529,7 +11769,7 @@
         <v>324.45190982691878</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="7" t="s">
         <v>70</v>
       </c>
@@ -11537,7 +11777,8 @@
         <v>2048</v>
       </c>
       <c r="C452">
-        <v>661.76415314938447</v>
+        <f t="shared" si="5"/>
+        <v>666.18884551886845</v>
       </c>
       <c r="D452">
         <v>631.11985276044174</v>
@@ -11552,7 +11793,7 @@
         <v>331.38194226503566</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="7" t="s">
         <v>70</v>
       </c>
@@ -11560,7 +11801,8 @@
         <v>2049</v>
       </c>
       <c r="C453">
-        <v>662.27476502867296</v>
+        <f t="shared" si="5"/>
+        <v>666.98788287374884</v>
       </c>
       <c r="D453">
         <v>632.30833841451454</v>
@@ -11575,7 +11817,7 @@
         <v>338.3266453029467</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="7" t="s">
         <v>70</v>
       </c>
@@ -11583,7 +11825,8 @@
         <v>2050</v>
       </c>
       <c r="C454">
-        <v>662.77894158587799</v>
+        <f t="shared" si="5"/>
+        <v>667.78885183273439</v>
       </c>
       <c r="D454">
         <v>633.42397507937756</v>
@@ -11612,7 +11855,7 @@
       <selection sqref="A1:F152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/Vehicle_Ownership.xlsx
+++ b/data/Vehicle_Ownership.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093B2C3-9205-4BAC-AE1A-54CF76691CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC64BE0-0366-4017-9D39-58DCF1DDB5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{FF4AD603-0FFA-40CB-9C5B-85FE0072E979}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FF4AD603-0FFA-40CB-9C5B-85FE0072E979}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -653,20 +653,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B438FA1-205D-431C-B63C-C60189B3878B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -744,7 +744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -788,7 +788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -808,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -826,7 +826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -860,7 +860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -878,11 +878,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10">
+        <v>44800</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -894,7 +896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -912,7 +914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -930,7 +932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -948,7 +950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
@@ -960,7 +962,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -972,7 +974,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -984,7 +986,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
@@ -996,7 +998,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
@@ -1008,7 +1010,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
@@ -1058,7 +1060,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>69</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>52</v>
       </c>
@@ -1105,7 +1107,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="3" t="s">
@@ -1115,7 +1117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="3" t="s">
@@ -1125,7 +1127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1137,7 +1139,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1153,16 +1155,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E799A2C7-724C-4BD5-AAAB-0AE4762BED26}">
   <dimension ref="A1:G454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="O155" sqref="O155"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="G454" sqref="G454"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" style="7"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>61</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1202,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>71</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>8.4381762259472845E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -1250,7 +1252,7 @@
         <v>0.16876352451894569</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -1274,7 +1276,7 @@
         <v>0.25314528677841852</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>0.33752704903789138</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>0.42190881129736424</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
@@ -1346,7 +1348,7 @@
         <v>0.50629057355683704</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -1370,7 +1372,7 @@
         <v>0.59067233581630985</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>71</v>
       </c>
@@ -1394,7 +1396,7 @@
         <v>0.67505409807578265</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>0.75943586033525545</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>0.84381762259472826</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>71</v>
       </c>
@@ -1466,7 +1468,7 @@
         <v>0.92819938485420106</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>71</v>
       </c>
@@ -1490,7 +1492,7 @@
         <v>1.0125811471136739</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>71</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>1.0969629093731468</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>71</v>
       </c>
@@ -1538,7 +1540,7 @@
         <v>1.1813446716326197</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>71</v>
       </c>
@@ -1562,7 +1564,7 @@
         <v>1.2657264338920926</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>71</v>
       </c>
@@ -1586,7 +1588,7 @@
         <v>1.3501081961515655</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>71</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>1.4344899584110384</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>71</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>1.5188717206705113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>71</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>1.6032534829299843</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>71</v>
       </c>
@@ -1682,7 +1684,7 @@
         <v>1.6876352451894572</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>1.7720170074489301</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>71</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>1.856398769708403</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -1754,7 +1756,7 @@
         <v>1.9407805319678759</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>71</v>
       </c>
@@ -1778,7 +1780,7 @@
         <v>2.0251622942273486</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>2.1095440564868215</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
@@ -1826,7 +1828,7 @@
         <v>2.1939258187462944</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -1850,7 +1852,7 @@
         <v>2.2783075810057674</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>2.3626893432652403</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
@@ -1898,7 +1900,7 @@
         <v>2.4470711055247132</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -1922,7 +1924,7 @@
         <v>2.5314528677841861</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
@@ -1946,7 +1948,7 @@
         <v>2.615834630043659</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>71</v>
       </c>
@@ -1970,7 +1972,7 @@
         <v>2.7002163923031319</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>71</v>
       </c>
@@ -1994,7 +1996,7 @@
         <v>2.7845981545626048</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>71</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>2.8689799168220778</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>71</v>
       </c>
@@ -2042,7 +2044,7 @@
         <v>2.9533616790815507</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>71</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>3.0377434413410236</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>71</v>
       </c>
@@ -2090,7 +2092,7 @@
         <v>3.1221252036004965</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>3.2065069658599694</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>71</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>3.2908887281194423</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>71</v>
       </c>
@@ -2162,7 +2164,7 @@
         <v>3.3752704903789152</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>71</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>3.4596522526383882</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>71</v>
       </c>
@@ -2210,7 +2212,7 @@
         <v>3.5440340148978611</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>71</v>
       </c>
@@ -2234,7 +2236,7 @@
         <v>3.628415777157334</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>71</v>
       </c>
@@ -2258,7 +2260,7 @@
         <v>3.7127975394168069</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>71</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>3.7971793016762798</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>71</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>3.8815610639357527</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>71</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>3.9659428261952256</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>71</v>
       </c>
@@ -2354,7 +2356,7 @@
         <v>4.0503245884546981</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>71</v>
       </c>
@@ -2378,7 +2380,7 @@
         <v>4.134706350714171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -2401,7 +2403,7 @@
         <v>4.2190881129736422</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -2424,7 +2426,7 @@
         <v>4.4871259779449968</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -2447,7 +2449,7 @@
         <v>4.7719175135444134</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>71</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>5.0744739800179532</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -2493,7 +2495,7 @@
         <v>5.395862988627468</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>71</v>
       </c>
@@ -2516,7 +2518,7 @@
         <v>5.7372110252666717</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>71</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>6.0997060027976264</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>71</v>
       </c>
@@ -2562,7 +2564,7 @@
         <v>6.4845998287942965</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>71</v>
       </c>
@@ -2585,7 +2587,7 @@
         <v>6.893210973007684</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>71</v>
       </c>
@@ -2608,7 +2610,7 @@
         <v>7.3269270162321627</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -2631,7 +2633,7 @@
         <v>7.7872071593390562</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
@@ -2654,7 +2656,7 @@
         <v>8.2755846680369984</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>71</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>8.7936692254068962</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>71</v>
       </c>
@@ -2700,7 +2702,7 @@
         <v>9.3431491604335388</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>71</v>
       </c>
@@ -2723,7 +2725,7 @@
         <v>9.9257935166112397</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>71</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>10.54345392023798</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>71</v>
       </c>
@@ -2769,7 +2771,7 @@
         <v>11.198066203238838</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>71</v>
       </c>
@@ -2792,7 +2794,7 @@
         <v>11.891651730291006</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -2815,7 +2817,7 @@
         <v>12.626318374685651</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -2838,7 +2840,7 @@
         <v>13.404261081795061</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
@@ -2861,7 +2863,7 @@
         <v>14.227761953270035</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>71</v>
       </c>
@@ -2884,7 +2886,7 @@
         <v>15.099189779243064</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>71</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>16.020998939947269</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>71</v>
       </c>
@@ -2930,7 +2932,7 @@
         <v>16.99572759239215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>71</v>
       </c>
@@ -2953,7 +2955,7 @@
         <v>18.02599505220229</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>71</v>
       </c>
@@ -2976,7 +2978,7 @@
         <v>19.1144982755896</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>71</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>20.264007341888732</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>71</v>
       </c>
@@ -3022,7 +3024,7 @@
         <v>21.477359833365743</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>71</v>
       </c>
@@ -3045,7 +3047,7 @@
         <v>22.757454006373067</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>71</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>24.107240646662124</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>71</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>25.529713502106073</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>71</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>27.027898188585549</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>71</v>
       </c>
@@ -3137,7 +3139,7 @@
         <v>28.604839469732848</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>71</v>
       </c>
@@ -3160,7 +3162,7 @@
         <v>30.263586819016957</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>71</v>
       </c>
@@ -3183,7 +3185,7 @@
         <v>32.007178183695359</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>71</v>
       </c>
@@ -3206,7 +3208,7 @@
         <v>33.838621884867969</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>71</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>35.760876606635264</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>71</v>
       </c>
@@ -3252,7 +3254,7 @@
         <v>37.776829450539694</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>71</v>
       </c>
@@ -3275,7 +3277,7 @@
         <v>39.889272059348777</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>71</v>
       </c>
@@ -3298,7 +3300,7 @@
         <v>42.100874847024961</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>71</v>
       </c>
@@ -3321,7 +3323,7 @@
         <v>44.414159409506837</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>71</v>
       </c>
@@ -3344,7 +3346,7 @@
         <v>46.831469233637222</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>71</v>
       </c>
@@ -3367,7 +3369,7 @@
         <v>49.354938868968944</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>71</v>
       </c>
@@ -3390,7 +3392,7 @@
         <v>51.986461778797974</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>71</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>54.727657141906903</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>71</v>
       </c>
@@ -3436,7 +3438,7 @@
         <v>57.579835934171044</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>71</v>
       </c>
@@ -3459,7 +3461,7 @@
         <v>60.543966678113655</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>71</v>
       </c>
@@ -3482,7 +3484,7 @@
         <v>63.620641307131599</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>71</v>
       </c>
@@ -3505,7 +3507,7 @@
         <v>66.810041647592655</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>71</v>
       </c>
@@ -3528,7 +3530,7 @@
         <v>70.111907074212084</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>71</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>73.525503939711513</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>71</v>
       </c>
@@ -3574,7 +3576,7 @@
         <v>77.049597416255651</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>71</v>
       </c>
@@ -3597,7 +3599,7 @@
         <v>80.682426410998545</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>71</v>
       </c>
@@ -3620,7 +3622,7 @@
         <v>84.421682228743151</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>71</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>88.264491648896623</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>71</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>92.207405059579159</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>71</v>
       </c>
@@ -3689,7 +3691,7 @@
         <v>96.246390247382109</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>71</v>
       </c>
@@ -3712,7 +3714,7 @@
         <v>100.3768323759558</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>71</v>
       </c>
@@ -3735,7 +3737,7 @@
         <v>104.59354060018373</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>71</v>
       </c>
@@ -3758,7 +3760,7 @@
         <v>108.89076165588504</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>71</v>
       </c>
@@ -3781,7 +3783,7 @@
         <v>113.26220063944363</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>71</v>
       </c>
@@ -3804,7 +3806,7 @@
         <v>117.70104905013251</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>71</v>
       </c>
@@ -3827,7 +3829,7 @@
         <v>122.20002001377908</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>71</v>
       </c>
@@ -3850,7 +3852,7 @@
         <v>126.75139044425649</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>71</v>
       </c>
@@ -3873,7 +3875,7 @@
         <v>131.34704973426057</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>71</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>135.97855440461586</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>71</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>140.63718798787315</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>71</v>
       </c>
@@ -3942,7 +3944,7 @@
         <v>145.31402528309533</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>71</v>
       </c>
@@ -3965,7 +3967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>71</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>154.6844509218904</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>71</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>159.35977332739003</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>71</v>
       </c>
@@ -4037,7 +4039,7 @@
         <v>164.01690971610992</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>71</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>168.64694344887113</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>71</v>
       </c>
@@ -4085,7 +4087,7 @@
         <v>173.24116628433646</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>71</v>
       </c>
@@ -4109,7 +4111,7 @@
         <v>177.79114253388843</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>71</v>
       </c>
@@ -4133,7 +4135,7 @@
         <v>182.28876885503078</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>71</v>
       </c>
@@ -4157,7 +4159,7 @@
         <v>186.72632882197959</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>71</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>191.09654155059053</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>71</v>
       </c>
@@ -4205,7 +4207,7 @@
         <v>195.39260380782673</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>71</v>
       </c>
@@ -4229,7 +4231,7 @@
         <v>199.60822519775508</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>71</v>
       </c>
@@ -4253,7 +4255,7 @@
         <v>203.73765618065772</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>71</v>
       </c>
@@ -4277,7 +4279,7 @@
         <v>207.77570884359974</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>71</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>211.7177704945525</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>71</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>215.55981029348561</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>71</v>
       </c>
@@ -4349,7 +4351,7 @@
         <v>219.29837925912562</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>71</v>
       </c>
@@ -4373,7 +4375,7 @@
         <v>222.93060409670159</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>71</v>
       </c>
@@ -4397,7 +4399,7 @@
         <v>226.45417537829078</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>71</v>
       </c>
@@ -4421,7 +4423,7 @@
         <v>229.86733067262662</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>71</v>
       </c>
@@ -4445,7 +4447,7 @@
         <v>233.168833265584</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>71</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>236.35794713692704</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>71</v>
       </c>
@@ -4493,7 +4495,7 @@
         <v>239.43440886480903</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>71</v>
       </c>
@@ -4517,7 +4519,7 @@
         <v>242.39839711896803</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>71</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>245.25050037887183</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>71</v>
       </c>
@@ -4565,7 +4567,7 @@
         <v>247.99168347673776</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>71</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>250.62325351993292</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>71</v>
       </c>
@@ -4613,7 +4615,7 @@
         <v>253.1468256952293</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>71</v>
       </c>
@@ -4637,7 +4639,7 @@
         <v>255.56428940107912</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>71</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>257.877775095603</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>71</v>
       </c>
@@ -4685,7 +4687,7 @@
         <v>260.08962218919692</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>71</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>262.20234825312951</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>71</v>
       </c>
@@ -4733,7 +4735,7 @@
         <v>264.21861976048029</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>66</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>66</v>
       </c>
@@ -4780,7 +4782,7 @@
         <v>8.4381762259472845E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>66</v>
       </c>
@@ -4804,7 +4806,7 @@
         <v>0.16876352451894569</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>66</v>
       </c>
@@ -4828,7 +4830,7 @@
         <v>0.25314528677841852</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>66</v>
       </c>
@@ -4852,7 +4854,7 @@
         <v>0.33752704903789138</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>66</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>0.42190881129736424</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>66</v>
       </c>
@@ -4900,7 +4902,7 @@
         <v>0.50629057355683704</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>66</v>
       </c>
@@ -4924,7 +4926,7 @@
         <v>0.59067233581630985</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>66</v>
       </c>
@@ -4948,7 +4950,7 @@
         <v>0.67505409807578265</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>66</v>
       </c>
@@ -4972,7 +4974,7 @@
         <v>0.75943586033525545</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>66</v>
       </c>
@@ -4996,7 +4998,7 @@
         <v>0.84381762259472826</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>66</v>
       </c>
@@ -5020,7 +5022,7 @@
         <v>0.92819938485420106</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>66</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>1.0125811471136739</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>66</v>
       </c>
@@ -5068,7 +5070,7 @@
         <v>1.0969629093731468</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>66</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>1.1813446716326197</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>66</v>
       </c>
@@ -5116,7 +5118,7 @@
         <v>1.2657264338920926</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>66</v>
       </c>
@@ -5140,7 +5142,7 @@
         <v>1.3501081961515655</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>66</v>
       </c>
@@ -5164,7 +5166,7 @@
         <v>1.4344899584110384</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>66</v>
       </c>
@@ -5188,7 +5190,7 @@
         <v>1.5188717206705113</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>66</v>
       </c>
@@ -5212,7 +5214,7 @@
         <v>1.6032534829299843</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>66</v>
       </c>
@@ -5236,7 +5238,7 @@
         <v>1.6876352451894572</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>66</v>
       </c>
@@ -5260,7 +5262,7 @@
         <v>1.7720170074489301</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>66</v>
       </c>
@@ -5284,7 +5286,7 @@
         <v>1.856398769708403</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>66</v>
       </c>
@@ -5308,7 +5310,7 @@
         <v>1.9407805319678759</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>66</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>2.0251622942273486</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>66</v>
       </c>
@@ -5356,7 +5358,7 @@
         <v>2.1095440564868215</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>66</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>2.1939258187462944</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>66</v>
       </c>
@@ -5404,7 +5406,7 @@
         <v>2.2783075810057674</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>66</v>
       </c>
@@ -5428,7 +5430,7 @@
         <v>2.3626893432652403</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>66</v>
       </c>
@@ -5452,7 +5454,7 @@
         <v>2.4470711055247132</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>66</v>
       </c>
@@ -5476,7 +5478,7 @@
         <v>2.5314528677841861</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>66</v>
       </c>
@@ -5500,7 +5502,7 @@
         <v>2.615834630043659</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>66</v>
       </c>
@@ -5524,7 +5526,7 @@
         <v>2.7002163923031319</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>66</v>
       </c>
@@ -5548,7 +5550,7 @@
         <v>2.7845981545626048</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>66</v>
       </c>
@@ -5572,7 +5574,7 @@
         <v>2.8689799168220778</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>66</v>
       </c>
@@ -5596,7 +5598,7 @@
         <v>2.9533616790815507</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>66</v>
       </c>
@@ -5620,7 +5622,7 @@
         <v>3.0377434413410236</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>66</v>
       </c>
@@ -5644,7 +5646,7 @@
         <v>3.1221252036004965</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>66</v>
       </c>
@@ -5668,7 +5670,7 @@
         <v>3.2065069658599694</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>66</v>
       </c>
@@ -5692,7 +5694,7 @@
         <v>3.2908887281194423</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>66</v>
       </c>
@@ -5716,7 +5718,7 @@
         <v>3.3752704903789152</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>66</v>
       </c>
@@ -5740,7 +5742,7 @@
         <v>3.4596522526383882</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>66</v>
       </c>
@@ -5764,7 +5766,7 @@
         <v>3.5440340148978611</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>66</v>
       </c>
@@ -5788,7 +5790,7 @@
         <v>3.628415777157334</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>66</v>
       </c>
@@ -5812,7 +5814,7 @@
         <v>3.7127975394168069</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>66</v>
       </c>
@@ -5836,7 +5838,7 @@
         <v>3.7971793016762798</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>66</v>
       </c>
@@ -5860,7 +5862,7 @@
         <v>3.8815610639357527</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>66</v>
       </c>
@@ -5884,7 +5886,7 @@
         <v>3.9659428261952256</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>66</v>
       </c>
@@ -5908,7 +5910,7 @@
         <v>4.0503245884546981</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>66</v>
       </c>
@@ -5932,7 +5934,7 @@
         <v>4.134706350714171</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>66</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>4.2190881129736422</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>66</v>
       </c>
@@ -5978,7 +5980,7 @@
         <v>4.4871259779449968</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>66</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>4.7719175135444134</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>66</v>
       </c>
@@ -6024,7 +6026,7 @@
         <v>5.0744739800179532</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>66</v>
       </c>
@@ -6047,7 +6049,7 @@
         <v>5.395862988627468</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>66</v>
       </c>
@@ -6070,7 +6072,7 @@
         <v>5.7372110252666717</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>66</v>
       </c>
@@ -6093,7 +6095,7 @@
         <v>6.0997060027976264</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>66</v>
       </c>
@@ -6116,7 +6118,7 @@
         <v>6.4845998287942965</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>66</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>6.893210973007684</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>66</v>
       </c>
@@ -6162,7 +6164,7 @@
         <v>7.3269270162321627</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>66</v>
       </c>
@@ -6185,7 +6187,7 @@
         <v>7.7872071593390562</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>66</v>
       </c>
@@ -6208,7 +6210,7 @@
         <v>8.2755846680369984</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>66</v>
       </c>
@@ -6231,7 +6233,7 @@
         <v>8.7936692254068962</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>66</v>
       </c>
@@ -6254,7 +6256,7 @@
         <v>9.3431491604335388</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>66</v>
       </c>
@@ -6277,7 +6279,7 @@
         <v>9.9257935166112397</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>66</v>
       </c>
@@ -6300,7 +6302,7 @@
         <v>10.54345392023798</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>66</v>
       </c>
@@ -6323,7 +6325,7 @@
         <v>11.198066203238838</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>66</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>11.891651730291006</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>66</v>
       </c>
@@ -6369,7 +6371,7 @@
         <v>12.626318374685651</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>66</v>
       </c>
@@ -6392,7 +6394,7 @@
         <v>13.404261081795061</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>66</v>
       </c>
@@ -6415,7 +6417,7 @@
         <v>14.227761953270035</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>66</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>15.099189779243064</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>66</v>
       </c>
@@ -6461,7 +6463,7 @@
         <v>16.020998939947269</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>66</v>
       </c>
@@ -6484,7 +6486,7 @@
         <v>16.99572759239215</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>66</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>18.02599505220229</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>66</v>
       </c>
@@ -6530,7 +6532,7 @@
         <v>19.1144982755896</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>66</v>
       </c>
@@ -6553,7 +6555,7 @@
         <v>20.264007341888732</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>66</v>
       </c>
@@ -6576,7 +6578,7 @@
         <v>21.477359833365743</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>66</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>22.757454006373067</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>66</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>24.107240646662124</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>66</v>
       </c>
@@ -6645,7 +6647,7 @@
         <v>25.529713502106073</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>66</v>
       </c>
@@ -6668,7 +6670,7 @@
         <v>27.027898188585549</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>66</v>
       </c>
@@ -6691,7 +6693,7 @@
         <v>28.604839469732848</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>66</v>
       </c>
@@ -6714,7 +6716,7 @@
         <v>30.263586819016957</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>66</v>
       </c>
@@ -6737,7 +6739,7 @@
         <v>32.007178183695359</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>66</v>
       </c>
@@ -6760,7 +6762,7 @@
         <v>33.838621884867969</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>66</v>
       </c>
@@ -6783,7 +6785,7 @@
         <v>35.760876606635264</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>66</v>
       </c>
@@ -6806,7 +6808,7 @@
         <v>37.776829450539694</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>66</v>
       </c>
@@ -6829,7 +6831,7 @@
         <v>39.889272059348777</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>66</v>
       </c>
@@ -6852,7 +6854,7 @@
         <v>42.100874847024961</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>66</v>
       </c>
@@ -6875,7 +6877,7 @@
         <v>44.414159409506837</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>66</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>46.831469233637222</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>66</v>
       </c>
@@ -6921,7 +6923,7 @@
         <v>49.354938868968944</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>66</v>
       </c>
@@ -6944,7 +6946,7 @@
         <v>51.986461778797974</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>66</v>
       </c>
@@ -6967,7 +6969,7 @@
         <v>54.727657141906903</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>66</v>
       </c>
@@ -6990,7 +6992,7 @@
         <v>57.579835934171044</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>66</v>
       </c>
@@ -7013,7 +7015,7 @@
         <v>60.543966678113655</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>66</v>
       </c>
@@ -7036,7 +7038,7 @@
         <v>63.620641307131599</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>66</v>
       </c>
@@ -7059,7 +7061,7 @@
         <v>66.810041647592655</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>66</v>
       </c>
@@ -7082,7 +7084,7 @@
         <v>70.111907074212084</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>66</v>
       </c>
@@ -7105,7 +7107,7 @@
         <v>73.525503939711513</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>66</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>77.049597416255651</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>66</v>
       </c>
@@ -7151,7 +7153,7 @@
         <v>80.682426410998545</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>66</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>84.421682228743151</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>66</v>
       </c>
@@ -7197,7 +7199,7 @@
         <v>88.264491648896623</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>66</v>
       </c>
@@ -7220,7 +7222,7 @@
         <v>92.207405059579159</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>66</v>
       </c>
@@ -7243,7 +7245,7 @@
         <v>96.246390247382109</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>66</v>
       </c>
@@ -7266,7 +7268,7 @@
         <v>100.3768323759558</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>66</v>
       </c>
@@ -7289,7 +7291,7 @@
         <v>104.59354060018373</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>66</v>
       </c>
@@ -7312,7 +7314,7 @@
         <v>108.89076165588504</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>66</v>
       </c>
@@ -7335,7 +7337,7 @@
         <v>113.26220063944363</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>66</v>
       </c>
@@ -7358,7 +7360,7 @@
         <v>117.70104905013251</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>66</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>122.20002001377908</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>66</v>
       </c>
@@ -7404,7 +7406,7 @@
         <v>126.75139044425649</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>66</v>
       </c>
@@ -7427,7 +7429,7 @@
         <v>131.34704973426057</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>66</v>
       </c>
@@ -7450,7 +7452,7 @@
         <v>135.97855440461586</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>66</v>
       </c>
@@ -7473,7 +7475,7 @@
         <v>140.63718798787315</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>66</v>
       </c>
@@ -7496,7 +7498,7 @@
         <v>145.31402528309533</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>66</v>
       </c>
@@ -7519,7 +7521,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>66</v>
       </c>
@@ -7543,7 +7545,7 @@
         <v>154.72738518174995</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>66</v>
       </c>
@@ -7567,7 +7569,7 @@
         <v>159.53584703767842</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>66</v>
       </c>
@@ -7591,7 +7593,7 @@
         <v>164.42258002782114</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>66</v>
       </c>
@@ -7615,7 +7617,7 @@
         <v>169.38452825593603</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>66</v>
       </c>
@@ -7639,7 +7641,7 @@
         <v>174.41838907148565</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>66</v>
       </c>
@@ -7663,7 +7665,7 @@
         <v>179.52061824765855</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>66</v>
       </c>
@@ -7687,7 +7689,7 @@
         <v>184.68743675998067</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>66</v>
       </c>
@@ -7711,7 +7713,7 @@
         <v>189.91483917357664</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>66</v>
       </c>
@@ -7735,7 +7737,7 @@
         <v>195.19860362968041</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>66</v>
       </c>
@@ -7759,7 +7761,7 @@
         <v>200.53430340382889</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>66</v>
       </c>
@@ -7783,7 +7785,7 @@
         <v>205.91731998958792</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>66</v>
       </c>
@@ -7807,7 +7809,7 @@
         <v>211.3428576429701</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>66</v>
       </c>
@@ -7831,7 +7833,7 @@
         <v>216.80595930424445</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>66</v>
       </c>
@@ -7855,7 +7857,7 @@
         <v>222.30152379594844</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>66</v>
       </c>
@@ -7879,7 +7881,7 @@
         <v>227.82432417893807</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>66</v>
       </c>
@@ -7903,7 +7905,7 @@
         <v>233.36902713259178</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>66</v>
       </c>
@@ -7927,7 +7929,7 @@
         <v>238.93021321113551</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>66</v>
       </c>
@@ -7951,7 +7953,7 @@
         <v>244.50239781577662</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>66</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>250.08005271218332</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>66</v>
       </c>
@@ -7999,7 +8001,7 @@
         <v>255.65762791504474</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>66</v>
       </c>
@@ -8023,7 +8025,7 @@
         <v>261.22957375615692</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>66</v>
       </c>
@@ -8047,7 +8049,7 @@
         <v>266.7903629498316</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>66</v>
       </c>
@@ -8071,7 +8073,7 @@
         <v>272.33451246945924</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>66</v>
       </c>
@@ -8095,7 +8097,7 @@
         <v>277.85660505179072</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>66</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v>283.35131015086017</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>66</v>
       </c>
@@ -8143,7 +8145,7 @@
         <v>288.81340417134544</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>66</v>
       </c>
@@ -8167,7 +8169,7 @@
         <v>294.23778982137861</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>66</v>
       </c>
@@ -8191,7 +8193,7 @@
         <v>299.61951443715452</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>66</v>
       </c>
@@ -8215,7 +8217,7 @@
         <v>304.95378714588361</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>66</v>
       </c>
@@ -8239,7 +8241,7 @@
         <v>310.23599474939743</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>66</v>
       </c>
@@ -8263,7 +8265,7 @@
         <v>315.46171622771777</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>66</v>
       </c>
@@ -8287,7 +8289,7 @@
         <v>320.62673577981411</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>70</v>
       </c>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>70</v>
       </c>
@@ -8334,7 +8336,7 @@
         <v>8.4381762259472845E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>70</v>
       </c>
@@ -8358,7 +8360,7 @@
         <v>0.16876352451894569</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>70</v>
       </c>
@@ -8382,7 +8384,7 @@
         <v>0.25314528677841852</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>70</v>
       </c>
@@ -8406,7 +8408,7 @@
         <v>0.33752704903789138</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>70</v>
       </c>
@@ -8430,7 +8432,7 @@
         <v>0.42190881129736424</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>70</v>
       </c>
@@ -8454,7 +8456,7 @@
         <v>0.50629057355683704</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>70</v>
       </c>
@@ -8478,7 +8480,7 @@
         <v>0.59067233581630985</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>70</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>0.67505409807578265</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>70</v>
       </c>
@@ -8526,7 +8528,7 @@
         <v>0.75943586033525545</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>70</v>
       </c>
@@ -8550,7 +8552,7 @@
         <v>0.84381762259472826</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>70</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>0.92819938485420106</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>70</v>
       </c>
@@ -8598,7 +8600,7 @@
         <v>1.0125811471136739</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>70</v>
       </c>
@@ -8622,7 +8624,7 @@
         <v>1.0969629093731468</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>70</v>
       </c>
@@ -8646,7 +8648,7 @@
         <v>1.1813446716326197</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>70</v>
       </c>
@@ -8670,7 +8672,7 @@
         <v>1.2657264338920926</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>70</v>
       </c>
@@ -8694,7 +8696,7 @@
         <v>1.3501081961515655</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>70</v>
       </c>
@@ -8718,7 +8720,7 @@
         <v>1.4344899584110384</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>70</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>1.5188717206705113</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>70</v>
       </c>
@@ -8766,7 +8768,7 @@
         <v>1.6032534829299843</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>70</v>
       </c>
@@ -8790,7 +8792,7 @@
         <v>1.6876352451894572</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>70</v>
       </c>
@@ -8814,7 +8816,7 @@
         <v>1.7720170074489301</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>70</v>
       </c>
@@ -8838,7 +8840,7 @@
         <v>1.856398769708403</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>70</v>
       </c>
@@ -8862,7 +8864,7 @@
         <v>1.9407805319678759</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>70</v>
       </c>
@@ -8886,7 +8888,7 @@
         <v>2.0251622942273486</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>70</v>
       </c>
@@ -8910,7 +8912,7 @@
         <v>2.1095440564868215</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>70</v>
       </c>
@@ -8934,7 +8936,7 @@
         <v>2.1939258187462944</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>70</v>
       </c>
@@ -8958,7 +8960,7 @@
         <v>2.2783075810057674</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>70</v>
       </c>
@@ -8982,7 +8984,7 @@
         <v>2.3626893432652403</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>70</v>
       </c>
@@ -9006,7 +9008,7 @@
         <v>2.4470711055247132</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>70</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>2.5314528677841861</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>70</v>
       </c>
@@ -9054,7 +9056,7 @@
         <v>2.615834630043659</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>70</v>
       </c>
@@ -9078,7 +9080,7 @@
         <v>2.7002163923031319</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>70</v>
       </c>
@@ -9102,7 +9104,7 @@
         <v>2.7845981545626048</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>70</v>
       </c>
@@ -9126,7 +9128,7 @@
         <v>2.8689799168220778</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>70</v>
       </c>
@@ -9150,7 +9152,7 @@
         <v>2.9533616790815507</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>70</v>
       </c>
@@ -9174,7 +9176,7 @@
         <v>3.0377434413410236</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>70</v>
       </c>
@@ -9198,7 +9200,7 @@
         <v>3.1221252036004965</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>70</v>
       </c>
@@ -9222,7 +9224,7 @@
         <v>3.2065069658599694</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>70</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>3.2908887281194423</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>70</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>3.3752704903789152</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>70</v>
       </c>
@@ -9294,7 +9296,7 @@
         <v>3.4596522526383882</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>70</v>
       </c>
@@ -9318,7 +9320,7 @@
         <v>3.5440340148978611</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>70</v>
       </c>
@@ -9342,7 +9344,7 @@
         <v>3.628415777157334</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>70</v>
       </c>
@@ -9366,7 +9368,7 @@
         <v>3.7127975394168069</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>70</v>
       </c>
@@ -9390,7 +9392,7 @@
         <v>3.7971793016762798</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>70</v>
       </c>
@@ -9414,7 +9416,7 @@
         <v>3.8815610639357527</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>70</v>
       </c>
@@ -9438,7 +9440,7 @@
         <v>3.9659428261952256</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>70</v>
       </c>
@@ -9462,7 +9464,7 @@
         <v>4.0503245884546981</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>70</v>
       </c>
@@ -9486,7 +9488,7 @@
         <v>4.134706350714171</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>70</v>
       </c>
@@ -9509,7 +9511,7 @@
         <v>4.2190881129736422</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>70</v>
       </c>
@@ -9532,7 +9534,7 @@
         <v>4.4871259779449968</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>70</v>
       </c>
@@ -9555,7 +9557,7 @@
         <v>4.7719175135444134</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>70</v>
       </c>
@@ -9578,7 +9580,7 @@
         <v>5.0744739800179532</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>70</v>
       </c>
@@ -9601,7 +9603,7 @@
         <v>5.395862988627468</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>70</v>
       </c>
@@ -9624,7 +9626,7 @@
         <v>5.7372110252666717</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>70</v>
       </c>
@@ -9647,7 +9649,7 @@
         <v>6.0997060027976264</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>70</v>
       </c>
@@ -9670,7 +9672,7 @@
         <v>6.4845998287942965</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>70</v>
       </c>
@@ -9693,7 +9695,7 @@
         <v>6.893210973007684</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>70</v>
       </c>
@@ -9716,7 +9718,7 @@
         <v>7.3269270162321627</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>70</v>
       </c>
@@ -9739,7 +9741,7 @@
         <v>7.7872071593390562</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>70</v>
       </c>
@@ -9762,7 +9764,7 @@
         <v>8.2755846680369984</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>70</v>
       </c>
@@ -9785,7 +9787,7 @@
         <v>8.7936692254068962</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>70</v>
       </c>
@@ -9808,7 +9810,7 @@
         <v>9.3431491604335388</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>70</v>
       </c>
@@ -9831,7 +9833,7 @@
         <v>9.9257935166112397</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>70</v>
       </c>
@@ -9854,7 +9856,7 @@
         <v>10.54345392023798</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>70</v>
       </c>
@@ -9877,7 +9879,7 @@
         <v>11.198066203238838</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>70</v>
       </c>
@@ -9900,7 +9902,7 @@
         <v>11.891651730291006</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>70</v>
       </c>
@@ -9923,7 +9925,7 @@
         <v>12.626318374685651</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>70</v>
       </c>
@@ -9946,7 +9948,7 @@
         <v>13.404261081795061</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>70</v>
       </c>
@@ -9969,7 +9971,7 @@
         <v>14.227761953270035</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>70</v>
       </c>
@@ -9992,7 +9994,7 @@
         <v>15.099189779243064</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>70</v>
       </c>
@@ -10015,7 +10017,7 @@
         <v>16.020998939947269</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>70</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>16.99572759239215</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>70</v>
       </c>
@@ -10061,7 +10063,7 @@
         <v>18.02599505220229</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>70</v>
       </c>
@@ -10084,7 +10086,7 @@
         <v>19.1144982755896</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>70</v>
       </c>
@@ -10107,7 +10109,7 @@
         <v>20.264007341888732</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>70</v>
       </c>
@@ -10130,7 +10132,7 @@
         <v>21.477359833365743</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>70</v>
       </c>
@@ -10153,7 +10155,7 @@
         <v>22.757454006373067</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>70</v>
       </c>
@@ -10176,7 +10178,7 @@
         <v>24.107240646662124</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>70</v>
       </c>
@@ -10199,7 +10201,7 @@
         <v>25.529713502106073</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
         <v>70</v>
       </c>
@@ -10222,7 +10224,7 @@
         <v>27.027898188585549</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
         <v>70</v>
       </c>
@@ -10245,7 +10247,7 @@
         <v>28.604839469732848</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
         <v>70</v>
       </c>
@@ -10268,7 +10270,7 @@
         <v>30.263586819016957</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>70</v>
       </c>
@@ -10291,7 +10293,7 @@
         <v>32.007178183695359</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>70</v>
       </c>
@@ -10314,7 +10316,7 @@
         <v>33.838621884867969</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
         <v>70</v>
       </c>
@@ -10337,7 +10339,7 @@
         <v>35.760876606635264</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
         <v>70</v>
       </c>
@@ -10360,7 +10362,7 @@
         <v>37.776829450539694</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
         <v>70</v>
       </c>
@@ -10383,7 +10385,7 @@
         <v>39.889272059348777</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
         <v>70</v>
       </c>
@@ -10406,7 +10408,7 @@
         <v>42.100874847024961</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>70</v>
       </c>
@@ -10429,7 +10431,7 @@
         <v>44.414159409506837</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>70</v>
       </c>
@@ -10452,7 +10454,7 @@
         <v>46.831469233637222</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
         <v>70</v>
       </c>
@@ -10475,7 +10477,7 @@
         <v>49.354938868968944</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
         <v>70</v>
       </c>
@@ -10498,7 +10500,7 @@
         <v>51.986461778797974</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
         <v>70</v>
       </c>
@@ -10521,7 +10523,7 @@
         <v>54.727657141906903</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
         <v>70</v>
       </c>
@@ -10544,7 +10546,7 @@
         <v>57.579835934171044</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>70</v>
       </c>
@@ -10567,7 +10569,7 @@
         <v>60.543966678113655</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>70</v>
       </c>
@@ -10590,7 +10592,7 @@
         <v>63.620641307131599</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>70</v>
       </c>
@@ -10613,7 +10615,7 @@
         <v>66.810041647592655</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>70</v>
       </c>
@@ -10636,7 +10638,7 @@
         <v>70.111907074212084</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>70</v>
       </c>
@@ -10659,7 +10661,7 @@
         <v>73.525503939711513</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>70</v>
       </c>
@@ -10682,7 +10684,7 @@
         <v>77.049597416255651</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>70</v>
       </c>
@@ -10705,7 +10707,7 @@
         <v>80.682426410998545</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>70</v>
       </c>
@@ -10728,7 +10730,7 @@
         <v>84.421682228743151</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>70</v>
       </c>
@@ -10751,7 +10753,7 @@
         <v>88.264491648896623</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>70</v>
       </c>
@@ -10774,7 +10776,7 @@
         <v>92.207405059579159</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>70</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>96.246390247382109</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>70</v>
       </c>
@@ -10820,7 +10822,7 @@
         <v>100.3768323759558</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>70</v>
       </c>
@@ -10843,7 +10845,7 @@
         <v>104.59354060018373</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>70</v>
       </c>
@@ -10866,7 +10868,7 @@
         <v>108.89076165588504</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>70</v>
       </c>
@@ -10889,7 +10891,7 @@
         <v>113.26220063944363</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>70</v>
       </c>
@@ -10912,7 +10914,7 @@
         <v>117.70104905013251</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>70</v>
       </c>
@@ -10935,7 +10937,7 @@
         <v>122.20002001377908</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>70</v>
       </c>
@@ -10958,7 +10960,7 @@
         <v>126.75139044425649</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>70</v>
       </c>
@@ -10981,7 +10983,7 @@
         <v>131.34704973426057</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
         <v>70</v>
       </c>
@@ -11004,7 +11006,7 @@
         <v>135.97855440461586</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>70</v>
       </c>
@@ -11027,7 +11029,7 @@
         <v>140.63718798787315</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>70</v>
       </c>
@@ -11050,7 +11052,7 @@
         <v>145.31402528309533</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>70</v>
       </c>
@@ -11073,7 +11075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>70</v>
       </c>
@@ -11097,7 +11099,7 @@
         <v>154.73918728549114</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>70</v>
       </c>
@@ -11121,7 +11123,7 @@
         <v>159.5846616975841</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
         <v>70</v>
       </c>
@@ -11145,7 +11147,7 @@
         <v>164.53608077672851</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>70</v>
       </c>
@@ -11169,7 +11171,7 @@
         <v>169.59291585858088</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>70</v>
       </c>
@@ -11193,7 +11195,7 @@
         <v>174.75444541672056</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
         <v>70</v>
       </c>
@@ -11217,7 +11219,7 @@
         <v>180.01974889302105</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>70</v>
       </c>
@@ -11241,7 +11243,7 @@
         <v>185.38770108214936</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
         <v>70</v>
       </c>
@@ -11265,7 +11267,7 @@
         <v>190.85696713659291</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
         <v>70</v>
       </c>
@@ -11289,7 +11291,7 @@
         <v>196.42599825783185</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
         <v>70</v>
       </c>
@@ -11313,7 +11315,7 @@
         <v>202.09302813773664</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>70</v>
       </c>
@@ -11337,7 +11339,7 @@
         <v>207.85607021193869</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>70</v>
       </c>
@@ -11361,7 +11363,7 @@
         <v>213.71291578376236</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>70</v>
       </c>
@@ -11385,7 +11387,7 @@
         <v>219.66113307330767</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>70</v>
       </c>
@@ -11409,7 +11411,7 @@
         <v>225.69806724141876</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
         <v>70</v>
       </c>
@@ -11433,7 +11435,7 @@
         <v>231.82084143258365</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
         <v>70</v>
       </c>
@@ -11457,7 +11459,7 @@
         <v>238.02635887429662</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
         <v>70</v>
       </c>
@@ -11481,7 +11483,7 @@
         <v>244.31130606312237</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
         <v>70</v>
       </c>
@@ -11505,7 +11507,7 @@
         <v>250.67215705968124</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
         <v>70</v>
       </c>
@@ -11529,7 +11531,7 @@
         <v>257.10517890609754</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
         <v>70</v>
       </c>
@@ -11553,7 +11555,7 @@
         <v>263.60643817020457</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
         <v>70</v>
       </c>
@@ -11577,7 +11579,7 @@
         <v>270.17180861108153</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
         <v>70</v>
       </c>
@@ -11601,7 +11603,7 @@
         <v>276.79697995042022</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="7" t="s">
         <v>70</v>
       </c>
@@ -11625,7 +11627,7 @@
         <v>283.47746772391764</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
         <v>70</v>
       </c>
@@ -11649,7 +11651,7 @@
         <v>290.20862417648709</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
         <v>70</v>
       </c>
@@ -11673,7 +11675,7 @@
         <v>296.98565015473952</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="7" t="s">
         <v>70</v>
       </c>
@@ -11697,7 +11699,7 @@
         <v>303.80360794003815</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
         <v>70</v>
       </c>
@@ -11721,7 +11723,7 @@
         <v>310.6574349556401</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
         <v>70</v>
       </c>
@@ -11745,7 +11747,7 @@
         <v>317.5419582721554</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
         <v>70</v>
       </c>
@@ -11769,7 +11771,7 @@
         <v>324.45190982691878</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="7" t="s">
         <v>70</v>
       </c>
@@ -11793,7 +11795,7 @@
         <v>331.38194226503566</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
         <v>70</v>
       </c>
@@ -11817,7 +11819,7 @@
         <v>338.3266453029467</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
         <v>70</v>
       </c>
@@ -11855,7 +11857,7 @@
       <selection sqref="A1:F152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
